--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="3"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="LeetCode Monster" sheetId="4" r:id="rId4"/>
+    <sheet name="LeetCode Monster" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>题号</t>
   </si>
@@ -223,16 +221,22 @@
   <si>
     <t>https://leetcode-cn.com/problems/climbing-stairs/</t>
   </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>66. 加一</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -265,6 +269,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
@@ -289,7 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,29 +315,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,6 +391,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -388,15 +408,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,21 +423,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,13 +486,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,163 +636,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,11 +710,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,32 +773,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,16 +812,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,16 +830,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,98 +848,101 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,24 +961,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -987,7 +997,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1334,49 +1344,49 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="16"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" ht="33.75" spans="1:10">
       <c r="A5" s="2">
@@ -1389,19 +1399,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="6">
+      <c r="E5" s="13">
         <v>11.29</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>283</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1416,10 +1426,10 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="17"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1434,8 +1444,8 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
@@ -1453,10 +1463,10 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
         <v>206</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1471,7 +1481,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="17"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" ht="22.5" spans="1:10">
       <c r="A10" s="2">
@@ -1489,10 +1499,10 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="17"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="12">
+      <c r="A11" s="14">
         <v>141</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1507,7 +1517,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
@@ -1525,13 +1535,13 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="13">
+      <c r="A13" s="15">
         <v>25</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1543,10 +1553,10 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="17"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="12">
+      <c r="A14" s="14">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1561,10 +1571,10 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="12">
+      <c r="A15" s="14">
         <v>155</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1579,10 +1589,10 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="17"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" ht="22.5" spans="1:10">
-      <c r="A16" s="13">
+      <c r="A16" s="15">
         <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1597,10 +1607,10 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="17"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13">
+      <c r="A17" s="15">
         <v>239</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1615,60 +1625,60 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" ht="22.5" spans="1:10">
-      <c r="A22" s="12">
+      <c r="A22" s="14">
         <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1683,10 +1693,10 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="12">
+      <c r="A23" s="14">
         <v>189</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1701,10 +1711,10 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="17"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="12">
+      <c r="A24" s="14">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1719,10 +1729,10 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="17"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="12">
+      <c r="A25" s="14">
         <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1737,10 +1747,10 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="17"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="12">
+      <c r="A26" s="14">
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1755,10 +1765,10 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="17"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="12">
+      <c r="A27" s="14">
         <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1773,7 +1783,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="17"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
@@ -1791,10 +1801,10 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="17"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="13">
+      <c r="A29" s="15">
         <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1809,7 +1819,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="17"/>
+      <c r="J29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1853,49 +1863,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
@@ -1937,12 +1915,31 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6">
-        <v>11.29</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>44286</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44287</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1950,6 +1947,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://leetcode-cn.com/problems/climbing-stairs/"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://leetcode-cn.com/problems/plus-one/" tooltip="https://leetcode-cn.com/problems/plus-one/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -233,9 +233,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -300,34 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -336,6 +308,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -346,48 +408,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,31 +421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,13 +486,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,13 +600,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,37 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,109 +654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,21 +695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -726,16 +711,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,6 +769,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -781,17 +792,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,16 +812,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,10 +833,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,88 +857,88 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1866,7 +1866,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1935,7 +1935,9 @@
         <v>50</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>44287</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>题号</t>
   </si>
@@ -227,16 +227,22 @@
   <si>
     <t>66. 加一</t>
   </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>1. 两数之和</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -300,6 +306,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -308,126 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -486,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,17 +701,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,11 +727,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,33 +766,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,153 +783,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1863,17 +1869,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="8.125" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="52.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
@@ -1903,7 +1909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:9">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -1938,10 +1944,29 @@
       <c r="E3" s="6">
         <v>44287</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6">
+        <v>44288</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1950,6 +1975,8 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://leetcode-cn.com/problems/climbing-stairs/"/>
     <hyperlink ref="C3" r:id="rId2" display="https://leetcode-cn.com/problems/plus-one/" tooltip="https://leetcode-cn.com/problems/plus-one/"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://leetcode-cn.com/problems/two-sum/" tooltip="https://leetcode-cn.com/problems/two-sum/"/>
+    <hyperlink ref="B4" r:id="rId3" display="1. 两数之和" tooltip="https://leetcode-cn.com/problems/two-sum/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -239,10 +239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -307,6 +307,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -321,7 +343,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,10 +395,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,82 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -434,6 +427,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -492,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,9 +703,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,15 +723,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,10 +759,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -778,8 +769,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,36 +789,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,112 +839,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1872,7 +1872,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1924,13 +1924,15 @@
         <v>44286</v>
       </c>
       <c r="F2" s="6">
+        <v>44286</v>
+      </c>
+      <c r="G2" s="6">
         <v>44287</v>
       </c>
-      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" ht="28" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
@@ -1945,13 +1947,15 @@
         <v>44287</v>
       </c>
       <c r="F3" s="6">
+        <v>44287</v>
+      </c>
+      <c r="G3" s="6">
         <v>44288</v>
       </c>
-      <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" ht="27" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1962,8 +1966,12 @@
         <v>48</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="6">
+        <v>44288</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44288</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -45,14 +45,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>第3课：数组、链表、跳表</t>
     </r>
     <r>
@@ -64,17 +56,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第4课：栈、队列、优先队列、双端队列</t>
+第4课：栈、队列、优先队列、双端队列</t>
     </r>
   </si>
   <si>
@@ -239,12 +221,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +265,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
@@ -299,15 +295,114 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,113 +417,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,7 +430,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +469,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA3E043"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,43 +493,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,25 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,109 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,17 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -728,6 +718,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -738,21 +743,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,36 +788,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,116 +840,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,41 +977,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1310,522 +1329,533 @@
   <sheetPr/>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
-    <col min="6" max="9" width="3.25" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.14166666666667" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="9" customWidth="1"/>
+    <col min="8" max="9" width="3.375" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" ht="33.75" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="15">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="13">
-        <v>11.29</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="19" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14">
+      <c r="A6" s="20">
         <v>283</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="19"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="21">
+        <v>44288</v>
+      </c>
+      <c r="F6" s="21">
+        <v>44288</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="14">
+      <c r="A7" s="20">
         <v>70</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="19"/>
-      <c r="L7" s="20"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="21">
+        <v>44288</v>
+      </c>
+      <c r="F7" s="21">
+        <v>44288</v>
+      </c>
+      <c r="G7" s="21">
+        <v>44288</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2">
+      <c r="A8" s="15">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="19"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="14">
+      <c r="A9" s="20">
         <v>206</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" ht="22.5" spans="1:10">
-      <c r="A10" s="2">
+      <c r="D9" s="16"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="15">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="19"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="14">
+      <c r="A11" s="20">
         <v>141</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="19"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2">
+      <c r="A12" s="15">
         <v>142</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="19"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="15">
+      <c r="A13" s="22">
         <v>25</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="19"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="14">
+      <c r="A14" s="20">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="14">
+      <c r="A15" s="20">
         <v>155</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" ht="22.5" spans="1:10">
-      <c r="A16" s="15">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="22">
         <v>84</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="15">
+      <c r="A17" s="22">
         <v>239</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:10">
-      <c r="A20" s="11" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" ht="22.5" spans="1:10">
-      <c r="A22" s="14">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="20">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="12"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="14">
+      <c r="A23" s="20">
         <v>189</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="19"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="14">
+      <c r="A24" s="20">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="19"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="14">
+      <c r="A25" s="20">
         <v>88</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="19"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="14">
+      <c r="A26" s="20">
         <v>1</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="19"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="14">
+      <c r="A27" s="20">
         <v>66</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="19"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="2">
+      <c r="A28" s="15">
         <v>641</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="15">
+      <c r="A29" s="22">
         <v>42</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1871,7 +1901,7 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -45,6 +45,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>第3课：数组、链表、跳表</t>
     </r>
     <r>
@@ -221,8 +229,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -295,6 +303,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -303,14 +319,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +341,60 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,58 +408,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,20 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,13 +431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,7 +438,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,12 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA3E043"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,49 +495,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,133 +639,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,6 +704,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -713,6 +733,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,24 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -782,15 +793,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -804,31 +806,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,13 +842,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,101 +857,101 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,43 +994,25 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1327,10 +1311,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
@@ -1372,7 +1356,7 @@
       <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
       <c r="A2" s="11" t="s">
@@ -1388,474 +1372,407 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" ht="13.5" spans="1:1">
       <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="25" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="16">
+        <v>44288</v>
+      </c>
+      <c r="F5" s="16">
+        <v>44288</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="20">
+    <row r="6" spans="1:9">
+      <c r="A6" s="17">
         <v>283</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="21">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
         <v>44288</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <v>44288</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="20">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17">
         <v>70</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="21">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
         <v>44288</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <v>44288</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="16">
         <v>44288</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="25"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="14">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="20">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="17">
         <v>206</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="15">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14">
         <v>24</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="20">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="17">
         <v>141</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="15">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="14">
         <v>142</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="22">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="18">
         <v>25</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="20">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17">
         <v>20</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="20">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="17">
         <v>155</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="22">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="18">
         <v>84</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="22">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="18">
         <v>239</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:10">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" ht="13.5" spans="1:1">
       <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="20">
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="17">
         <v>26</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="20">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="17">
         <v>189</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="20">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="17">
         <v>21</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="20">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="17">
         <v>88</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="25"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="20">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="17">
         <v>1</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="20">
+      <c r="D26" s="15"/>
+      <c r="E26" s="16">
+        <v>44288</v>
+      </c>
+      <c r="F26" s="16">
+        <v>44288</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="17">
         <v>66</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="25"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="15">
+      <c r="D27" s="15"/>
+      <c r="E27" s="16">
+        <v>44288</v>
+      </c>
+      <c r="F27" s="16">
+        <v>44288</v>
+      </c>
+      <c r="G27" s="16">
+        <v>44288</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="14">
         <v>641</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="25"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="22">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="18">
         <v>42</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="25"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>题号</t>
   </si>
@@ -223,16 +223,22 @@
   <si>
     <t>1. 两数之和</t>
   </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>24. 两两交换链表中的节点</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -303,6 +309,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -312,42 +362,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,29 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -394,6 +394,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -409,23 +417,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,6 +501,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,7 +567,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,163 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,20 +710,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,15 +740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -757,6 +751,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,28 +799,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,152 +812,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,6 +984,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1313,466 +1322,472 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="7.14166666666667" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="9" customWidth="1"/>
-    <col min="8" max="9" width="3.375" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="10" customWidth="1"/>
+    <col min="8" max="9" width="3.375" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="20"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:1">
+      <c r="A4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16">
+      <c r="D5" s="16"/>
+      <c r="E5" s="17">
         <v>44288</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="17">
         <v>44288</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="9" t="s">
+      <c r="G5" s="17">
+        <v>44289</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>283</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17">
         <v>44288</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="17">
         <v>44288</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="17">
+        <v>44289</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17">
+      <c r="A7" s="18">
         <v>70</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17">
         <v>44288</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>44288</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="17">
         <v>44288</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>15</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17">
+      <c r="A9" s="18">
         <v>206</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>24</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="17">
+      <c r="A11" s="18">
         <v>141</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="14">
+      <c r="A12" s="15">
         <v>142</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18">
+      <c r="A13" s="19">
         <v>25</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="17">
+      <c r="A14" s="18">
         <v>20</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="17">
+      <c r="A15" s="18">
         <v>155</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>84</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="18">
+      <c r="A17" s="19">
         <v>239</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="17">
+      <c r="A22" s="18">
         <v>26</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="17">
+      <c r="A23" s="18">
         <v>189</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="17">
+      <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="17">
+      <c r="A25" s="18">
         <v>88</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="17">
+      <c r="A26" s="18">
         <v>1</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16">
+      <c r="D26" s="16"/>
+      <c r="E26" s="17">
         <v>44288</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="17">
         <v>44288</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="G26" s="17">
+        <v>44289</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="17">
+      <c r="A27" s="18">
         <v>66</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17">
         <v>44288</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="17">
         <v>44288</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="17">
         <v>44288</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="14">
+      <c r="A28" s="15">
         <v>641</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="18">
+      <c r="A29" s="19">
         <v>42</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1816,15 +1831,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="7.73333333333333" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="52.75" customWidth="1"/>
   </cols>
@@ -1919,9 +1934,22 @@
       <c r="F4" s="6">
         <v>44288</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="6">
+        <v>44289</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
+    </row>
+    <row r="5" ht="22.5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1932,6 +1960,8 @@
     <hyperlink ref="C3" r:id="rId2" display="https://leetcode-cn.com/problems/plus-one/" tooltip="https://leetcode-cn.com/problems/plus-one/"/>
     <hyperlink ref="C4" r:id="rId3" display="https://leetcode-cn.com/problems/two-sum/" tooltip="https://leetcode-cn.com/problems/two-sum/"/>
     <hyperlink ref="B4" r:id="rId3" display="1. 两数之和" tooltip="https://leetcode-cn.com/problems/two-sum/"/>
+    <hyperlink ref="B5" r:id="rId4" display="24. 两两交换链表中的节点" tooltip="https://leetcode-cn.com/problems/swap-nodes-in-pairs/"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://leetcode-cn.com/problems/swap-nodes-in-pairs/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>题号</t>
   </si>
@@ -212,22 +212,34 @@
     <t>https://leetcode-cn.com/problems/climbing-stairs/</t>
   </si>
   <si>
+    <t>数组，动态规划，递归</t>
+  </si>
+  <si>
     <t>Day 2</t>
   </si>
   <si>
     <t>66. 加一</t>
   </si>
   <si>
+    <t>数组</t>
+  </si>
+  <si>
     <t>Day 3</t>
   </si>
   <si>
     <t>1. 两数之和</t>
   </si>
   <si>
+    <t>数组，哈希映射</t>
+  </si>
+  <si>
     <t>Day 4</t>
   </si>
   <si>
     <t>24. 两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>链表</t>
   </si>
 </sst>
 </file>
@@ -235,8 +247,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -310,14 +322,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,51 +388,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -394,14 +405,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -416,6 +419,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -423,8 +434,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,25 +513,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,43 +657,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,109 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,21 +718,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF2B2B2B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,17 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -799,6 +785,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -807,6 +808,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -815,145 +827,145 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1323,7 +1335,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
@@ -1388,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" ht="13.5" spans="1:1">
       <c r="A4" s="14"/>
     </row>
     <row r="5" spans="1:10">
@@ -1508,8 +1520,12 @@
         <v>23</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="17">
+        <v>44289</v>
+      </c>
+      <c r="F10" s="17">
+        <v>44289</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -1833,15 +1849,17 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="7.73333333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="23.2333333333333" customWidth="1"/>
     <col min="3" max="3" width="52.75" customWidth="1"/>
+    <col min="4" max="4" width="16.4" customWidth="1"/>
+    <col min="10" max="10" width="14.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
@@ -1881,7 +1899,9 @@
       <c r="C2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E2" s="6">
         <v>44286</v>
       </c>
@@ -1896,15 +1916,17 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E3" s="6">
         <v>44287</v>
       </c>
@@ -1919,15 +1941,17 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E4" s="6">
         <v>44288</v>
       </c>
@@ -1940,15 +1964,24 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" ht="22.5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44289</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44289</v>
       </c>
     </row>
   </sheetData>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -247,10 +247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -321,6 +321,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -329,7 +330,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,8 +372,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,36 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -403,6 +419,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -419,29 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -513,181 +513,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,6 +718,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF2B2B2B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,6 +768,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,71 +819,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,112 +860,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,8 +1334,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
@@ -1668,8 +1668,12 @@
         <v>40</v>
       </c>
       <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="17">
+        <v>44289</v>
+      </c>
+      <c r="F22" s="17">
+        <v>44289</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -1849,8 +1853,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>题号</t>
   </si>
@@ -241,6 +241,9 @@
   <si>
     <t>链表</t>
   </si>
+  <si>
+    <t>21. 合并两个有序链表</t>
+  </si>
 </sst>
 </file>
 
@@ -321,6 +324,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,21 +347,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,20 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -380,6 +384,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -389,61 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,187 +516,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,15 +736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -768,21 +762,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,6 +798,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -830,7 +833,7 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,16 +842,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,112 +863,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
@@ -1851,13 +1854,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="7.73333333333333" customWidth="1"/>
     <col min="2" max="2" width="23.2333333333333" customWidth="1"/>
@@ -1988,6 +1991,14 @@
         <v>44289</v>
       </c>
     </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -1999,6 +2010,7 @@
     <hyperlink ref="B4" r:id="rId3" display="1. 两数之和" tooltip="https://leetcode-cn.com/problems/two-sum/"/>
     <hyperlink ref="B5" r:id="rId4" display="24. 两两交换链表中的节点" tooltip="https://leetcode-cn.com/problems/swap-nodes-in-pairs/"/>
     <hyperlink ref="C5" r:id="rId4" display="https://leetcode-cn.com/problems/swap-nodes-in-pairs/"/>
+    <hyperlink ref="B6" r:id="rId5" display="21. 合并两个有序链表" tooltip="https://leetcode-cn.com/problems/merge-two-sorted-lists/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -250,9 +250,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -332,7 +332,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,8 +397,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,36 +420,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -409,28 +438,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -445,13 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,7 +459,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,12 +498,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA3E043"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -516,181 +510,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,13 +719,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,17 +749,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,30 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -827,152 +821,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,13 +1018,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1337,8 +1328,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
@@ -1380,7 +1371,7 @@
       <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
       <c r="A2" s="12" t="s">
@@ -1396,7 +1387,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="21"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="14" t="s">
@@ -1417,13 +1408,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="17">
+      <c r="E5" s="6">
         <v>44288</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="6">
         <v>44288</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="6">
         <v>44289</v>
       </c>
       <c r="H5" s="16"/>
@@ -1433,7 +1424,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>283</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1443,20 +1434,20 @@
         <v>15</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="17">
+      <c r="E6" s="6">
         <v>44288</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="6">
         <v>44288</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="6">
         <v>44289</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>70</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -1466,13 +1457,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="17">
+      <c r="E7" s="6">
         <v>44288</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="6">
         <v>44288</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="6">
         <v>44288</v>
       </c>
       <c r="H7" s="16"/>
@@ -1496,7 +1487,7 @@
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>206</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -1523,18 +1514,20 @@
         <v>23</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="17">
+      <c r="E10" s="6">
         <v>44289</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="6">
         <v>44289</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="6">
+        <v>44290</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>141</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1568,7 +1561,7 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>25</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1585,7 +1578,7 @@
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>20</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1602,7 +1595,7 @@
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>155</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -1619,7 +1612,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>84</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1636,7 +1629,7 @@
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>239</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1661,7 +1654,7 @@
       <c r="A21" s="14"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>26</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -1671,18 +1664,14 @@
         <v>40</v>
       </c>
       <c r="D22" s="16"/>
-      <c r="E22" s="17">
-        <v>44289</v>
-      </c>
-      <c r="F22" s="17">
-        <v>44289</v>
-      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>189</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -1699,7 +1688,7 @@
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>21</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -1709,14 +1698,18 @@
         <v>44</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="6">
+        <v>44290</v>
+      </c>
+      <c r="F24" s="6">
+        <v>44290</v>
+      </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>88</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -1733,7 +1726,7 @@
       <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>1</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -1743,20 +1736,20 @@
         <v>48</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="17">
+      <c r="E26" s="6">
         <v>44288</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="6">
         <v>44288</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="6">
         <v>44289</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>66</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -1766,13 +1759,13 @@
         <v>50</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="17">
+      <c r="E27" s="6">
         <v>44288</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="6">
         <v>44288</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="6">
         <v>44288</v>
       </c>
       <c r="H27" s="16"/>
@@ -1796,7 +1789,7 @@
       <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>42</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -1856,8 +1849,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1971,7 +1964,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
@@ -1990,13 +1983,22 @@
       <c r="F5" s="6">
         <v>44289</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="G5" s="6">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>44</v>
+      </c>
+      <c r="E6" s="6">
+        <v>44290</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44290</v>
       </c>
     </row>
   </sheetData>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="18510" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>题号</t>
   </si>
@@ -242,7 +242,19 @@
     <t>链表</t>
   </si>
   <si>
+    <t>Day 5</t>
+  </si>
+  <si>
     <t>21. 合并两个有序链表</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>299. 猜数字游戏</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/bulls-and-cows/</t>
   </si>
 </sst>
 </file>
@@ -250,10 +262,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -324,6 +336,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -331,8 +372,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +392,45 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,50 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -412,41 +457,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,187 +522,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,6 +746,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -745,6 +768,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,79 +822,44 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,112 +869,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,8 +1340,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
@@ -1847,13 +1859,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="7.73333333333333" customWidth="1"/>
     <col min="2" max="2" width="23.2333333333333" customWidth="1"/>
@@ -1987,9 +1999,12 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>44</v>
@@ -1999,6 +2014,17 @@
       </c>
       <c r="F6" s="6">
         <v>44290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2013,6 +2039,7 @@
     <hyperlink ref="B5" r:id="rId4" display="24. 两两交换链表中的节点" tooltip="https://leetcode-cn.com/problems/swap-nodes-in-pairs/"/>
     <hyperlink ref="C5" r:id="rId4" display="https://leetcode-cn.com/problems/swap-nodes-in-pairs/"/>
     <hyperlink ref="B6" r:id="rId5" display="21. 合并两个有序链表" tooltip="https://leetcode-cn.com/problems/merge-two-sorted-lists/"/>
+    <hyperlink ref="B7" r:id="rId6" display="299. 猜数字游戏" tooltip="https://leetcode-cn.com/problems/bulls-and-cows/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="11460"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
-    <sheet name="LeetCode Monster" sheetId="4" r:id="rId2"/>
+    <sheet name="Week2" sheetId="5" r:id="rId2"/>
+    <sheet name="LeetCode Monster" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
   <si>
     <t>题号</t>
   </si>
@@ -203,6 +204,141 @@
     <t>https://leetcode.com/problems/trapping-rain-water/</t>
   </si>
   <si>
+    <t>第2周</t>
+  </si>
+  <si>
+    <r>
+      <t>第5课：哈希表、映射、集合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第6课：树、二叉树、二叉搜索树</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第6课：堆和二叉堆、图</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>有效的字母异位词</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>字母异位词分组</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/two-sum/description/</t>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>二叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>N叉树的后序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>N叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>N叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>剑指 Offer 40</t>
+  </si>
+  <si>
+    <t>最小的k个数</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/</t>
+  </si>
+  <si>
+    <t>剑指 Offer 49</t>
+  </si>
+  <si>
+    <t>丑数​</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/chou-shu-lcof/</t>
+  </si>
+  <si>
+    <t>前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/top-k-frequent-elements/</t>
+  </si>
+  <si>
     <t>Day 1</t>
   </si>
   <si>
@@ -255,6 +391,15 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/bulls-and-cows/</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>641. 设计循环双端队列</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-circular-deque/</t>
   </si>
 </sst>
 </file>
@@ -262,12 +407,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,20 +451,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
@@ -336,6 +467,148 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,126 +617,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,25 +675,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,19 +819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,133 +843,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +885,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -748,26 +931,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,41 +965,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,152 +986,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,37 +1162,82 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,86 +1538,86 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="10" customWidth="1"/>
-    <col min="8" max="9" width="3.375" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="25" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="25" customWidth="1"/>
+    <col min="8" max="9" width="3.375" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="20"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15">
+      <c r="A5" s="30">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="6">
         <v>44288</v>
       </c>
@@ -1429,23 +1627,23 @@
       <c r="G5" s="6">
         <v>44289</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="10" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="17">
+      <c r="A6" s="32">
         <v>283</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="6">
         <v>44288</v>
       </c>
@@ -1455,20 +1653,20 @@
       <c r="G6" s="6">
         <v>44289</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17">
+      <c r="A7" s="32">
         <v>70</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="6">
         <v>44288</v>
       </c>
@@ -1478,54 +1676,54 @@
       <c r="G7" s="6">
         <v>44288</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="15">
+      <c r="A8" s="30">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17">
+      <c r="A9" s="32">
         <v>206</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="15">
+      <c r="A10" s="30">
         <v>24</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="6">
         <v>44289</v>
       </c>
@@ -1535,219 +1733,221 @@
       <c r="G10" s="6">
         <v>44290</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="17">
+      <c r="A11" s="32">
         <v>141</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="15">
+      <c r="A12" s="30">
         <v>142</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18">
+      <c r="A13" s="33">
         <v>25</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="17">
+      <c r="A14" s="32">
         <v>20</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="17">
+      <c r="A15" s="32">
         <v>155</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18">
+      <c r="A16" s="33">
         <v>84</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="18">
+      <c r="A17" s="33">
         <v>239</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="14"/>
+      <c r="A21" s="29"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="17">
+      <c r="A22" s="32">
         <v>26</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="17">
+      <c r="A23" s="32">
         <v>189</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="17">
+      <c r="A24" s="32">
         <v>21</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="6">
         <v>44290</v>
       </c>
       <c r="F24" s="6">
         <v>44290</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="G24" s="6">
+        <v>44291</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="17">
+      <c r="A25" s="32">
         <v>88</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="17">
+      <c r="A26" s="32">
         <v>1</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="6">
         <v>44288</v>
       </c>
@@ -1757,20 +1957,20 @@
       <c r="G26" s="6">
         <v>44289</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="17">
+      <c r="A27" s="32">
         <v>66</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="6">
         <v>44288</v>
       </c>
@@ -1780,42 +1980,42 @@
       <c r="G27" s="6">
         <v>44288</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="15">
+      <c r="A28" s="30">
         <v>641</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="18">
+      <c r="A29" s="33">
         <v>42</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1859,13 +2059,384 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="48.75" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="9" width="3.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="56.25" customHeight="1" spans="1:9">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="57" customHeight="1" spans="1:9">
+      <c r="A2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" ht="22.5" spans="1:9">
+      <c r="A5" s="15">
+        <v>242</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="6">
+        <v>44292</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44292</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" ht="22.5" spans="1:9">
+      <c r="A6" s="19">
+        <v>49</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="6">
+        <v>44292</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44292</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" ht="22.5" spans="1:9">
+      <c r="A8" s="19">
+        <v>94</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" ht="22.5" spans="1:9">
+      <c r="A9" s="19">
+        <v>144</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" ht="22.5" spans="1:9">
+      <c r="A10" s="15">
+        <v>590</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" ht="22.5" spans="1:9">
+      <c r="A11" s="15">
+        <v>589</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" ht="22.5" spans="1:9">
+      <c r="A12" s="19">
+        <v>429</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" ht="22.5" spans="1:9">
+      <c r="A14" s="22">
+        <v>239</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="23"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="23"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" ht="22.5" spans="1:9">
+      <c r="A20" s="19">
+        <v>347</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B3:I4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://leetcode-cn.com/problems/valid-anagram/" tooltip="https://leetcode-cn.com/problems/valid-anagram/"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://leetcode-cn.com/problems/group-anagrams/" tooltip="https://leetcode-cn.com/problems/group-anagrams/"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://leetcode-cn.com/problems/two-sum/description/" tooltip="https://leetcode-cn.com/problems/two-sum/description/"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" tooltip="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="C9" r:id="rId5" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/" tooltip="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-postorder-traversal/"/>
+    <hyperlink ref="C11" r:id="rId7" display="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-preorder-traversal/"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/" tooltip="https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/"/>
+    <hyperlink ref="C13" r:id="rId9" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/" tooltip="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://leetcode-cn.com/problems/sliding-window-maximum" tooltip="https://leetcode-cn.com/problems/sliding-window-maximum"/>
+    <hyperlink ref="C19" r:id="rId11" display="https://leetcode-cn.com/problems/chou-shu-lcof/" tooltip="https://leetcode-cn.com/problems/chou-shu-lcof/"/>
+    <hyperlink ref="C20" r:id="rId12" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" tooltip="https://leetcode-cn.com/problems/top-k-frequent-elements/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="7.73333333333333" customWidth="1"/>
     <col min="2" max="2" width="23.2333333333333" customWidth="1"/>
@@ -1903,16 +2474,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6">
         <v>44286</v>
@@ -1928,16 +2499,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E3" s="6">
         <v>44287</v>
@@ -1953,16 +2524,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E4" s="6">
         <v>44288</v>
@@ -1978,16 +2549,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E5" s="6">
         <v>44289</v>
@@ -1999,12 +2570,12 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>44</v>
@@ -2015,16 +2586,36 @@
       <c r="F6" s="6">
         <v>44290</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6" s="6">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="E7" s="6">
+        <v>44291</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2040,6 +2631,8 @@
     <hyperlink ref="C5" r:id="rId4" display="https://leetcode-cn.com/problems/swap-nodes-in-pairs/"/>
     <hyperlink ref="B6" r:id="rId5" display="21. 合并两个有序链表" tooltip="https://leetcode-cn.com/problems/merge-two-sorted-lists/"/>
     <hyperlink ref="B7" r:id="rId6" display="299. 猜数字游戏" tooltip="https://leetcode-cn.com/problems/bulls-and-cows/"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://leetcode-cn.com/problems/design-circular-deque/"/>
+    <hyperlink ref="B8" r:id="rId7" display="641. 设计循环双端队列" tooltip="https://leetcode-cn.com/problems/design-circular-deque/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
   <si>
     <t>题号</t>
   </si>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>第5课：哈希表、映射、集合</t>
     </r>
     <r>
@@ -401,6 +409,15 @@
   <si>
     <t>https://leetcode-cn.com/problems/design-circular-deque/</t>
   </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>350. 两个数组的交集 II</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/</t>
+  </si>
 </sst>
 </file>
 
@@ -408,8 +425,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -490,30 +507,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,60 +620,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -602,21 +634,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -675,187 +692,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,6 +901,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -900,21 +926,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -925,6 +936,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,6 +969,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -961,26 +998,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -989,149 +1006,149 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,17 +1170,14 @@
     <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1178,18 +1192,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1539,85 +1541,85 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="25" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="25" customWidth="1"/>
-    <col min="8" max="9" width="3.375" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="25" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="20" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="20" customWidth="1"/>
+    <col min="8" max="9" width="3.375" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="35"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="29"/>
+      <c r="A4" s="24"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="30">
+      <c r="A5" s="25">
         <v>11</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="6">
         <v>44288</v>
       </c>
@@ -1627,23 +1629,23 @@
       <c r="G5" s="6">
         <v>44289</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="25" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="32">
+      <c r="A6" s="27">
         <v>283</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="6">
         <v>44288</v>
       </c>
@@ -1653,20 +1655,20 @@
       <c r="G6" s="6">
         <v>44289</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="32">
+      <c r="A7" s="27">
         <v>70</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="6">
         <v>44288</v>
       </c>
@@ -1676,54 +1678,54 @@
       <c r="G7" s="6">
         <v>44288</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="30">
+      <c r="A8" s="25">
         <v>15</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="32">
+      <c r="A9" s="27">
         <v>206</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="30">
+      <c r="A10" s="25">
         <v>24</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="6">
         <v>44289</v>
       </c>
@@ -1733,181 +1735,181 @@
       <c r="G10" s="6">
         <v>44290</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="32">
+      <c r="A11" s="27">
         <v>141</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="30">
+      <c r="A12" s="25">
         <v>142</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="33">
+      <c r="A13" s="28">
         <v>25</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="32">
+      <c r="A14" s="27">
         <v>20</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="32">
+      <c r="A15" s="27">
         <v>155</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="33">
+      <c r="A16" s="28">
         <v>84</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="33">
+      <c r="A17" s="28">
         <v>239</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="24"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="32">
+      <c r="A22" s="27">
         <v>26</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="32">
+      <c r="A23" s="27">
         <v>189</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="32">
+      <c r="A24" s="27">
         <v>21</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="6">
         <v>44290</v>
       </c>
@@ -1917,37 +1919,37 @@
       <c r="G24" s="6">
         <v>44291</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="32">
+      <c r="A25" s="27">
         <v>88</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="32">
+      <c r="A26" s="27">
         <v>1</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="6">
         <v>44288</v>
       </c>
@@ -1957,20 +1959,20 @@
       <c r="G26" s="6">
         <v>44289</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="32">
+      <c r="A27" s="27">
         <v>66</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="6">
         <v>44288</v>
       </c>
@@ -1980,42 +1982,46 @@
       <c r="G27" s="6">
         <v>44288</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="30">
+      <c r="A28" s="25">
         <v>641</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="6">
+        <v>44292</v>
+      </c>
+      <c r="F28" s="6">
+        <v>44292</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="33">
+      <c r="A29" s="28">
         <v>42</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2061,8 +2067,8 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2071,333 +2077,337 @@
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="3" width="48.75" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="9" width="3.25" customWidth="1"/>
+    <col min="5" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="9" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" ht="22.5" spans="1:9">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>242</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="6">
+        <v>44291</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44291</v>
+      </c>
+      <c r="G5" s="6">
         <v>44292</v>
       </c>
-      <c r="F5" s="6">
+      <c r="H5" s="8"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" ht="22.5" spans="1:9">
+      <c r="A6" s="2">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
+        <v>44291</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44291</v>
+      </c>
+      <c r="G7" s="6">
         <v>44292</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" ht="22.5" spans="1:9">
-      <c r="A6" s="19">
-        <v>49</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="15">
-        <v>1</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="6">
-        <v>44292</v>
-      </c>
-      <c r="F7" s="6">
-        <v>44292</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" ht="22.5" spans="1:9">
-      <c r="A8" s="19">
+      <c r="A8" s="2">
         <v>94</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" ht="22.5" spans="1:9">
-      <c r="A9" s="19">
+      <c r="A9" s="2">
         <v>144</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" ht="22.5" spans="1:9">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>590</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" ht="22.5" spans="1:9">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>589</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" ht="22.5" spans="1:9">
-      <c r="A12" s="19">
+      <c r="A12" s="2">
         <v>429</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" ht="22.5" spans="1:9">
-      <c r="A14" s="22">
+      <c r="A14" s="17">
         <v>239</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="23"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" ht="22.5" spans="1:9">
-      <c r="A20" s="19">
+      <c r="A20" s="2">
         <v>347</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2430,17 +2440,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.73333333333333" customWidth="1"/>
     <col min="2" max="2" width="23.2333333333333" customWidth="1"/>
-    <col min="3" max="3" width="52.75" customWidth="1"/>
+    <col min="3" max="3" width="70.375" customWidth="1"/>
     <col min="4" max="4" width="16.4" customWidth="1"/>
     <col min="10" max="10" width="14.5583333333333" customWidth="1"/>
   </cols>
@@ -2494,8 +2504,10 @@
       <c r="G2" s="6">
         <v>44287</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="6">
+        <v>44292</v>
+      </c>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2504,7 +2516,7 @@
       <c r="B3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2519,8 +2531,10 @@
       <c r="G3" s="6">
         <v>44288</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="6">
+        <v>44293</v>
+      </c>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
@@ -2529,7 +2543,7 @@
       <c r="B4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2544,8 +2558,8 @@
       <c r="G4" s="6">
         <v>44289</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -2590,7 +2604,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2606,8 +2620,11 @@
       <c r="F7" s="6">
         <v>44291</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="G7" s="6">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>98</v>
       </c>
@@ -2616,6 +2633,29 @@
       </c>
       <c r="C8" s="9" t="s">
         <v>100</v>
+      </c>
+      <c r="E8" s="6">
+        <v>44292</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44293</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44293</v>
       </c>
     </row>
   </sheetData>
@@ -2633,6 +2673,7 @@
     <hyperlink ref="B7" r:id="rId6" display="299. 猜数字游戏" tooltip="https://leetcode-cn.com/problems/bulls-and-cows/"/>
     <hyperlink ref="C8" r:id="rId7" display="https://leetcode-cn.com/problems/design-circular-deque/"/>
     <hyperlink ref="B8" r:id="rId7" display="641. 设计循环双端队列" tooltip="https://leetcode-cn.com/problems/design-circular-deque/"/>
+    <hyperlink ref="B9" r:id="rId8" display="350. 两个数组的交集 II" tooltip="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>题号</t>
   </si>
@@ -418,14 +418,23 @@
   <si>
     <t>https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/</t>
   </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>面试题59 - I. 滑动窗口的最大值</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -521,14 +530,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,7 +544,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,7 +552,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,10 +573,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,14 +586,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -603,16 +605,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,9 +621,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,187 +701,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,15 +910,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -925,6 +925,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -936,17 +960,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,17 +982,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,148 +1012,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,10 +1182,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2068,14 +2077,14 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="48.75" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="50.125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="7" width="7.375" customWidth="1"/>
     <col min="8" max="9" width="3.25" customWidth="1"/>
@@ -2167,7 +2176,7 @@
       <c r="G5" s="6">
         <v>44292</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" ht="22.5" spans="1:9">
@@ -2184,7 +2193,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9">
@@ -2207,7 +2216,7 @@
       <c r="G7" s="6">
         <v>44292</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" ht="22.5" spans="1:9">
@@ -2221,10 +2230,14 @@
         <v>63</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="6">
+        <v>44294</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44294</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" ht="22.5" spans="1:9">
@@ -2238,10 +2251,14 @@
         <v>65</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="6">
+        <v>44294</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44294</v>
+      </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" ht="22.5" spans="1:9">
@@ -2258,7 +2275,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" ht="22.5" spans="1:9">
@@ -2275,7 +2292,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" ht="22.5" spans="1:9">
@@ -2292,7 +2309,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9">
@@ -2322,12 +2339,12 @@
       <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="18"/>
@@ -2389,7 +2406,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" ht="22.5" spans="1:9">
@@ -2440,10 +2457,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E19" sqref="F10 E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2507,7 +2524,7 @@
       <c r="H2" s="6">
         <v>44292</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2534,7 +2551,7 @@
       <c r="H3" s="6">
         <v>44293</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
@@ -2558,8 +2575,10 @@
       <c r="G4" s="6">
         <v>44289</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="6">
+        <v>44294</v>
+      </c>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -2568,7 +2587,7 @@
       <c r="B5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
@@ -2591,7 +2610,7 @@
       <c r="B6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="6">
@@ -2631,7 +2650,7 @@
       <c r="B8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E8" s="6">
@@ -2641,7 +2660,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
@@ -2656,6 +2675,26 @@
       </c>
       <c r="F9" s="6">
         <v>44293</v>
+      </c>
+      <c r="G9" s="6">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="6">
+        <v>44294</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44294</v>
       </c>
     </row>
   </sheetData>
@@ -2674,6 +2713,7 @@
     <hyperlink ref="C8" r:id="rId7" display="https://leetcode-cn.com/problems/design-circular-deque/"/>
     <hyperlink ref="B8" r:id="rId7" display="641. 设计循环双端队列" tooltip="https://leetcode-cn.com/problems/design-circular-deque/"/>
     <hyperlink ref="B9" r:id="rId8" display="350. 两个数组的交集 II" tooltip="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/"/>
+    <hyperlink ref="B10" r:id="rId9" display="面试题59 - I. 滑动窗口的最大值" tooltip="https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
   <si>
     <t>题号</t>
   </si>
@@ -427,15 +427,24 @@
   <si>
     <t>https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof/</t>
   </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>1021. 删除最外层的括号</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-outermost-parentheses/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -516,6 +525,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -523,7 +539,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,29 +560,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,6 +608,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -614,6 +623,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -629,21 +653,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -701,187 +710,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,30 +934,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -982,6 +967,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1007,6 +1007,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1015,28 +1024,28 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1048,112 +1057,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1550,7 +1559,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
@@ -1860,8 +1869,12 @@
         <v>37</v>
       </c>
       <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="6">
+        <v>44294</v>
+      </c>
+      <c r="F17" s="6">
+        <v>44294</v>
+      </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -2076,15 +2089,15 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="50.125" customWidth="1"/>
+    <col min="3" max="3" width="58.85" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="7" width="7.375" customWidth="1"/>
     <col min="8" max="9" width="3.25" customWidth="1"/>
@@ -2156,7 +2169,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" ht="22.5" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5" s="14">
         <v>242</v>
       </c>
@@ -2179,7 +2192,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" ht="22.5" spans="1:9">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>49</v>
       </c>
@@ -2219,7 +2232,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" ht="22.5" spans="1:9">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>94</v>
       </c>
@@ -2240,7 +2253,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" ht="22.5" spans="1:9">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>144</v>
       </c>
@@ -2261,7 +2274,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" ht="22.5" spans="1:9">
+    <row r="10" spans="1:9">
       <c r="A10" s="14">
         <v>590</v>
       </c>
@@ -2272,13 +2285,17 @@
         <v>67</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="6">
+        <v>44295</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44295</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="9"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" ht="22.5" spans="1:9">
+    <row r="11" spans="1:9">
       <c r="A11" s="14">
         <v>589</v>
       </c>
@@ -2289,13 +2306,17 @@
         <v>69</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="6">
+        <v>44295</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44295</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="9"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" ht="22.5" spans="1:9">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>429</v>
       </c>
@@ -2329,7 +2350,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" ht="22.5" spans="1:9">
+    <row r="14" spans="1:9">
       <c r="A14" s="17">
         <v>239</v>
       </c>
@@ -2340,8 +2361,12 @@
         <v>37</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="6">
+        <v>44294</v>
+      </c>
+      <c r="F14" s="6">
+        <v>44294</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -2409,7 +2434,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" ht="22.5" spans="1:9">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>347</v>
       </c>
@@ -2457,10 +2482,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E19" sqref="F10 E19"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2469,6 +2494,7 @@
     <col min="2" max="2" width="23.2333333333333" customWidth="1"/>
     <col min="3" max="3" width="70.375" customWidth="1"/>
     <col min="4" max="4" width="16.4" customWidth="1"/>
+    <col min="8" max="8" width="9.375"/>
     <col min="10" max="10" width="14.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2580,7 +2606,7 @@
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
@@ -2601,6 +2627,9 @@
       </c>
       <c r="G5" s="6">
         <v>44290</v>
+      </c>
+      <c r="H5" s="6">
+        <v>44295</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2680,7 +2709,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>104</v>
       </c>
@@ -2695,6 +2724,26 @@
       </c>
       <c r="F10" s="6">
         <v>44294</v>
+      </c>
+      <c r="G10" s="6">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="6">
+        <v>44295</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44295</v>
       </c>
     </row>
   </sheetData>
@@ -2714,6 +2763,7 @@
     <hyperlink ref="B8" r:id="rId7" display="641. 设计循环双端队列" tooltip="https://leetcode-cn.com/problems/design-circular-deque/"/>
     <hyperlink ref="B9" r:id="rId8" display="350. 两个数组的交集 II" tooltip="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/"/>
     <hyperlink ref="B10" r:id="rId9" display="面试题59 - I. 滑动窗口的最大值" tooltip="https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof/"/>
+    <hyperlink ref="B11" r:id="rId10" display="1021. 删除最外层的括号" tooltip="https://leetcode-cn.com/problems/remove-outermost-parentheses/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="172">
   <si>
     <t>题号</t>
   </si>
@@ -436,18 +436,204 @@
   <si>
     <t>https://leetcode-cn.com/problems/remove-outermost-parentheses/</t>
   </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>412. Fizz Buzz</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/fizz-buzz/</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Day 15</t>
+  </si>
+  <si>
+    <t>Day 16</t>
+  </si>
+  <si>
+    <t>Day 17</t>
+  </si>
+  <si>
+    <t>Day 18</t>
+  </si>
+  <si>
+    <t>Day 19</t>
+  </si>
+  <si>
+    <t>Day 20</t>
+  </si>
+  <si>
+    <t>Day 21</t>
+  </si>
+  <si>
+    <t>Day 22</t>
+  </si>
+  <si>
+    <t>Day 23</t>
+  </si>
+  <si>
+    <t>Day 24</t>
+  </si>
+  <si>
+    <t>Day 25</t>
+  </si>
+  <si>
+    <t>Day 26</t>
+  </si>
+  <si>
+    <t>Day 27</t>
+  </si>
+  <si>
+    <t>Day 28</t>
+  </si>
+  <si>
+    <t>Day 29</t>
+  </si>
+  <si>
+    <t>Day 30</t>
+  </si>
+  <si>
+    <t>Day 31</t>
+  </si>
+  <si>
+    <t>Day 32</t>
+  </si>
+  <si>
+    <t>Day 33</t>
+  </si>
+  <si>
+    <t>Day 34</t>
+  </si>
+  <si>
+    <t>Day 35</t>
+  </si>
+  <si>
+    <t>Day 36</t>
+  </si>
+  <si>
+    <t>Day 37</t>
+  </si>
+  <si>
+    <t>Day 38</t>
+  </si>
+  <si>
+    <t>Day 39</t>
+  </si>
+  <si>
+    <t>Day 40</t>
+  </si>
+  <si>
+    <t>Day 41</t>
+  </si>
+  <si>
+    <t>Day 42</t>
+  </si>
+  <si>
+    <t>Day 43</t>
+  </si>
+  <si>
+    <t>Day 44</t>
+  </si>
+  <si>
+    <t>Day 45</t>
+  </si>
+  <si>
+    <t>Day 46</t>
+  </si>
+  <si>
+    <t>Day 47</t>
+  </si>
+  <si>
+    <t>Day 48</t>
+  </si>
+  <si>
+    <t>Day 49</t>
+  </si>
+  <si>
+    <t>Day 50</t>
+  </si>
+  <si>
+    <t>Day 51</t>
+  </si>
+  <si>
+    <t>Day 52</t>
+  </si>
+  <si>
+    <t>Day 53</t>
+  </si>
+  <si>
+    <t>Day 54</t>
+  </si>
+  <si>
+    <t>Day 55</t>
+  </si>
+  <si>
+    <t>Day 56</t>
+  </si>
+  <si>
+    <t>Day 57</t>
+  </si>
+  <si>
+    <t>Day 58</t>
+  </si>
+  <si>
+    <t>Day 59</t>
+  </si>
+  <si>
+    <t>Day 60</t>
+  </si>
+  <si>
+    <t>Day 61</t>
+  </si>
+  <si>
+    <t>Day 62</t>
+  </si>
+  <si>
+    <t>Day 63</t>
+  </si>
+  <si>
+    <t>Day 64</t>
+  </si>
+  <si>
+    <t>Day 65</t>
+  </si>
+  <si>
+    <t>Day 66</t>
+  </si>
+  <si>
+    <t>Day 67</t>
+  </si>
+  <si>
+    <t>Day 68</t>
+  </si>
+  <si>
+    <t>Day 69</t>
+  </si>
+  <si>
+    <t>Day 70</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,19 +656,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,6 +701,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -538,15 +721,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,8 +743,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,6 +779,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -587,14 +802,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,7 +823,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,29 +838,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,7 +851,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,13 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD900"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1C7231"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +896,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFD900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFE2C23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,73 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,113 +1088,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -915,6 +1128,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF2B2B2B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,6 +1156,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -945,15 +1176,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,17 +1204,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1010,9 +1221,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,243 +1234,261 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1559,491 +1790,492 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="20" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="20" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="20" customWidth="1"/>
-    <col min="8" max="9" width="3.375" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="26" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="26" customWidth="1"/>
+    <col min="8" max="8" width="9.06666666666667" style="26" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="30"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="25">
+      <c r="A5" s="31">
         <v>11</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="6">
+      <c r="D5" s="32"/>
+      <c r="E5" s="7">
         <v>44288</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>44288</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>44289</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="20" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="27">
+      <c r="A6" s="33">
         <v>283</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="6">
+      <c r="D6" s="32"/>
+      <c r="E6" s="7">
         <v>44288</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>44288</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>44289</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="27">
+      <c r="A7" s="33">
         <v>70</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="6">
+      <c r="D7" s="32"/>
+      <c r="E7" s="7">
         <v>44288</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>44288</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>44288</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="25">
+      <c r="A8" s="31">
         <v>15</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="27">
+      <c r="A9" s="33">
         <v>206</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="25">
+      <c r="A10" s="31">
         <v>24</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="6">
+      <c r="D10" s="32"/>
+      <c r="E10" s="7">
         <v>44289</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>44289</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>44290</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="27">
+      <c r="A11" s="33">
         <v>141</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="25">
+      <c r="A12" s="31">
         <v>142</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="28">
+      <c r="A13" s="34">
         <v>25</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="27">
+      <c r="A14" s="33">
         <v>20</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="27">
+      <c r="A15" s="33">
         <v>155</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="28">
+      <c r="A16" s="34">
         <v>84</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="28">
+      <c r="A17" s="34">
         <v>239</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="6">
+      <c r="D17" s="32"/>
+      <c r="E17" s="7">
         <v>44294</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>44294</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="24"/>
+      <c r="A21" s="30"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="27">
+      <c r="A22" s="33">
         <v>26</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="27">
+      <c r="A23" s="33">
         <v>189</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="27">
+      <c r="A24" s="33">
         <v>21</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="6">
+      <c r="D24" s="32"/>
+      <c r="E24" s="7">
         <v>44290</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>44290</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <v>44291</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="27">
+      <c r="A25" s="33">
         <v>88</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="27">
+      <c r="A26" s="33">
         <v>1</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="6">
+      <c r="D26" s="32"/>
+      <c r="E26" s="7">
         <v>44288</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="7">
         <v>44288</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="7">
         <v>44289</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="27">
+      <c r="A27" s="33">
         <v>66</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="6">
+      <c r="D27" s="32"/>
+      <c r="E27" s="7">
         <v>44288</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="7">
         <v>44288</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
         <v>44288</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="25">
+      <c r="A28" s="31">
         <v>641</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="6">
+      <c r="D28" s="32"/>
+      <c r="E28" s="7">
         <v>44292</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="7">
         <v>44292</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="28">
+      <c r="A29" s="34">
         <v>42</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2089,8 +2321,8 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2104,352 +2336,356 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:9">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="14">
+      <c r="A5" s="16">
         <v>242</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6">
+      <c r="D5" s="18"/>
+      <c r="E5" s="7">
         <v>44291</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>44291</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>44292</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="5"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2">
+      <c r="A6" s="20">
         <v>49</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="5"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="14">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6">
+      <c r="D7" s="18"/>
+      <c r="E7" s="7">
         <v>44291</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>44291</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>44292</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2">
+      <c r="A8" s="20">
         <v>94</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="D8" s="18"/>
+      <c r="E8" s="7">
         <v>44294</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>44294</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="5"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2">
+      <c r="A9" s="20">
         <v>144</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6">
+      <c r="D9" s="18"/>
+      <c r="E9" s="7">
         <v>44294</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>44294</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="5"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>590</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6">
+      <c r="D10" s="18"/>
+      <c r="E10" s="7">
         <v>44295</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>44295</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="14">
+      <c r="A11" s="16">
         <v>589</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6">
+      <c r="D11" s="18"/>
+      <c r="E11" s="7">
         <v>44295</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>44295</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="5"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2">
+      <c r="A12" s="20">
         <v>429</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="5"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="17">
+      <c r="A14" s="23">
         <v>239</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6">
+      <c r="D14" s="19"/>
+      <c r="E14" s="7">
         <v>44294</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>44294</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="5"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="7">
+        <v>44296</v>
+      </c>
+      <c r="F19" s="7">
+        <v>44296</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="2">
+      <c r="A20" s="20">
         <v>347</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2482,16 +2718,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.73333333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.2333333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.2333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="70.375" customWidth="1"/>
     <col min="4" max="4" width="16.4" customWidth="1"/>
     <col min="8" max="8" width="9.375"/>
@@ -2499,252 +2735,1057 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>44286</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>44286</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>44287</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>44292</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>44287</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>44287</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>44288</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>44293</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>44288</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>44288</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>44289</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>44294</v>
       </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>44289</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>44289</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>44290</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>44295</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="6">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7">
         <v>44290</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>44290</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>44291</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="6">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7">
         <v>44291</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>44291</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>44292</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="6">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7">
         <v>44292</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>44292</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="6">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7">
         <v>44293</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>44293</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>44294</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="6">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7">
         <v>44294</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>44294</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>44295</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="6">
+      <c r="D11" s="8"/>
+      <c r="E11" s="7">
         <v>44295</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>44295</v>
       </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2764,6 +3805,7 @@
     <hyperlink ref="B9" r:id="rId8" display="350. 两个数组的交集 II" tooltip="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/"/>
     <hyperlink ref="B10" r:id="rId9" display="面试题59 - I. 滑动窗口的最大值" tooltip="https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof/"/>
     <hyperlink ref="B11" r:id="rId10" display="1021. 删除最外层的括号" tooltip="https://leetcode-cn.com/problems/remove-outermost-parentheses/"/>
+    <hyperlink ref="B12" r:id="rId11" display="412. Fizz Buzz" tooltip="https://leetcode-cn.com/problems/fizz-buzz/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="175">
   <si>
     <t>题号</t>
   </si>
@@ -299,6 +299,12 @@
     <t>https://leetcode-cn.com/problems/binary-tree-inorder-traversal/</t>
   </si>
   <si>
+    <t>递归</t>
+  </si>
+  <si>
+    <t>迭代 DFS</t>
+  </si>
+  <si>
     <t>二叉树的前序遍历</t>
   </si>
   <si>
@@ -321,6 +327,9 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/n-ary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>BFS</t>
   </si>
   <si>
     <t>剑指 Offer 40</t>
@@ -628,8 +637,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -701,7 +710,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,22 +724,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,24 +755,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,10 +793,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,15 +833,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,7 +917,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,25 +1049,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,25 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,115 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,15 +1141,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1152,15 +1152,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,7 +1175,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,11 +1232,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,148 +1243,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2319,10 +2328,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2464,7 +2473,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="A8" s="20">
         <v>94</v>
       </c>
@@ -2484,16 +2493,22 @@
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
       <c r="I8" s="18"/>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="20">
         <v>144</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="7">
@@ -2511,10 +2526,10 @@
         <v>590</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="7">
@@ -2532,10 +2547,10 @@
         <v>589</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="7">
@@ -2548,15 +2563,15 @@
       <c r="H11" s="19"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:13">
       <c r="A12" s="20">
         <v>429</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -2564,16 +2579,19 @@
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
       <c r="I12" s="18"/>
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -2651,13 +2669,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="7">
@@ -2675,10 +2693,10 @@
         <v>347</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -2720,8 +2738,8 @@
   <sheetPr/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2763,16 +2781,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7">
         <v>44286</v>
@@ -2790,16 +2808,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E3" s="7">
         <v>44287</v>
@@ -2817,16 +2835,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E4" s="7">
         <v>44288</v>
@@ -2844,16 +2862,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E5" s="7">
         <v>44289</v>
@@ -2871,15 +2889,17 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="E6" s="7">
         <v>44290</v>
       </c>
@@ -2889,18 +2909,20 @@
       <c r="G6" s="7">
         <v>44291</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="7">
+        <v>44296</v>
+      </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7">
@@ -2917,13 +2939,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7">
@@ -2938,13 +2960,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7">
@@ -2961,13 +2983,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7">
@@ -2984,13 +3006,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7">
@@ -2999,30 +3021,36 @@
       <c r="F11" s="7">
         <v>44295</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7">
+        <v>44296</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="7">
+        <v>44296</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44296</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3035,7 +3063,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3048,7 +3076,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3061,7 +3089,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3074,7 +3102,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3087,7 +3115,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3100,7 +3128,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3113,7 +3141,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="9"/>
@@ -3126,7 +3154,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3139,7 +3167,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3152,7 +3180,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3165,7 +3193,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3178,7 +3206,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3191,7 +3219,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3204,7 +3232,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3217,7 +3245,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3230,7 +3258,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3243,7 +3271,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3256,7 +3284,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3269,7 +3297,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3282,7 +3310,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3295,7 +3323,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3308,7 +3336,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3321,7 +3349,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3334,7 +3362,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3347,7 +3375,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3360,7 +3388,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3373,7 +3401,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3386,7 +3414,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3399,7 +3427,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3412,7 +3440,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3425,7 +3453,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3438,7 +3466,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3451,7 +3479,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3464,7 +3492,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3477,7 +3505,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3490,7 +3518,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3503,7 +3531,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3516,7 +3544,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3529,7 +3557,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3542,7 +3570,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3555,7 +3583,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3568,7 +3596,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3581,7 +3609,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3594,7 +3622,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3607,7 +3635,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3620,7 +3648,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3633,7 +3661,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3646,7 +3674,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3659,7 +3687,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3672,7 +3700,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3685,7 +3713,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3698,7 +3726,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3711,7 +3739,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3724,7 +3752,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3737,7 +3765,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3750,7 +3778,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3763,7 +3791,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3776,7 +3804,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="8"/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="177">
   <si>
     <t>题号</t>
   </si>
@@ -458,6 +458,12 @@
     <t>Day 12</t>
   </si>
   <si>
+    <t>258. 各位相加</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/add-digits/</t>
+  </si>
+  <si>
     <t>Day 13</t>
   </si>
   <si>
@@ -637,10 +643,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -710,13 +716,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -724,14 +723,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,6 +737,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -753,8 +766,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -770,47 +837,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,27 +859,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -917,7 +923,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,25 +1025,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,37 +1055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,55 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,37 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,6 +1143,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF2B2B2B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,20 +1197,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,162 +1244,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2330,8 +2336,8 @@
   <sheetPr/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F21" sqref="F19 F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2340,7 +2346,8 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="58.85" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="7" width="7.375" customWidth="1"/>
+    <col min="5" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
     <col min="8" max="9" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2679,10 +2686,10 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="7">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="F19" s="7">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
@@ -2738,8 +2745,8 @@
   <sheetPr/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2748,7 +2755,7 @@
     <col min="2" max="2" width="23.2333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="70.375" customWidth="1"/>
     <col min="4" max="4" width="16.4" customWidth="1"/>
-    <col min="8" max="8" width="9.375"/>
+    <col min="5" max="8" width="8.125" customWidth="1"/>
     <col min="10" max="10" width="14.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3052,8 +3059,12 @@
       <c r="A13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -3063,7 +3074,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3076,7 +3087,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3089,7 +3100,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3102,7 +3113,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3115,7 +3126,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3128,7 +3139,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3141,7 +3152,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="9"/>
@@ -3154,7 +3165,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3167,7 +3178,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3180,7 +3191,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3193,7 +3204,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3206,7 +3217,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3219,7 +3230,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3232,7 +3243,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3245,7 +3256,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3258,7 +3269,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3271,7 +3282,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3284,7 +3295,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3297,7 +3308,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3310,7 +3321,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3323,7 +3334,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3336,7 +3347,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3349,7 +3360,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3362,7 +3373,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3375,7 +3386,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3388,7 +3399,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3401,7 +3412,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3414,7 +3425,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3427,7 +3438,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3440,7 +3451,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3453,7 +3464,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3466,7 +3477,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3479,7 +3490,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3492,7 +3503,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3505,7 +3516,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3518,7 +3529,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3531,7 +3542,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3544,7 +3555,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3557,7 +3568,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3570,7 +3581,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3583,7 +3594,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3596,7 +3607,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3609,7 +3620,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3622,7 +3633,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3635,7 +3646,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3648,7 +3659,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3661,7 +3672,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3674,7 +3685,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3687,7 +3698,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3700,7 +3711,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3713,7 +3724,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3726,7 +3737,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3739,7 +3750,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3752,7 +3763,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3765,7 +3776,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3778,7 +3789,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3791,7 +3802,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3804,7 +3815,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="8"/>
@@ -3834,6 +3845,7 @@
     <hyperlink ref="B10" r:id="rId9" display="面试题59 - I. 滑动窗口的最大值" tooltip="https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof/"/>
     <hyperlink ref="B11" r:id="rId10" display="1021. 删除最外层的括号" tooltip="https://leetcode-cn.com/problems/remove-outermost-parentheses/"/>
     <hyperlink ref="B12" r:id="rId11" display="412. Fizz Buzz" tooltip="https://leetcode-cn.com/problems/fizz-buzz/"/>
+    <hyperlink ref="B13" r:id="rId12" display="258. 各位相加" tooltip="https://leetcode-cn.com/problems/add-digits/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="5" r:id="rId2"/>
-    <sheet name="LeetCode Monster" sheetId="4" r:id="rId3"/>
+    <sheet name="Week3" sheetId="6" r:id="rId3"/>
+    <sheet name="LeetCode Monster" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -643,9 +644,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -716,22 +717,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,8 +759,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,33 +823,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,17 +846,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,22 +861,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -923,7 +924,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,19 +1026,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,19 +1080,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,127 +1098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,21 +1187,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1230,17 +1235,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,148 +1250,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2337,7 +2338,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F21" sqref="F19 F21"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2581,8 +2582,12 @@
         <v>73</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="7">
+        <v>44297</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44297</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
       <c r="I12" s="18"/>
@@ -2706,8 +2711,12 @@
         <v>82</v>
       </c>
       <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="E20" s="7">
+        <v>44297</v>
+      </c>
+      <c r="F20" s="7">
+        <v>44297</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -2743,10 +2752,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2941,7 +2966,9 @@
       <c r="G7" s="7">
         <v>44292</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="7">
+        <v>44297</v>
+      </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
@@ -3051,7 +3078,9 @@
       <c r="F12" s="7">
         <v>44296</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="7">
+        <v>44297</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
@@ -3066,8 +3095,12 @@
         <v>118</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="7">
+        <v>44297</v>
+      </c>
+      <c r="F13" s="7">
+        <v>44297</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="212">
   <si>
     <t>题号</t>
   </si>
@@ -357,6 +357,133 @@
     <t>https://leetcode-cn.com/problems/top-k-frequent-elements/</t>
   </si>
   <si>
+    <t>第3周</t>
+  </si>
+  <si>
+    <r>
+      <t>第7课：泛型递归、树的递归</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第8课：分治、回溯</t>
+    </r>
+  </si>
+  <si>
+    <t>括号生成</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/generate-parentheses/#/description</t>
+  </si>
+  <si>
+    <t>翻转二叉树</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/invert-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>验证二叉搜索树</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>二叉树的最小深度</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>二叉树的序列化与反序列化</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/powx-n/</t>
+  </si>
+  <si>
+    <t>子集</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/subsets/</t>
+  </si>
+  <si>
+    <t>多数元素</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/majority-element/description/</t>
+  </si>
+  <si>
+    <t>电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t>N皇后</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-queens/</t>
+  </si>
+  <si>
+    <t>二叉树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>组合</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/combinations/</t>
+  </si>
+  <si>
+    <t>全排列</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutations/</t>
+  </si>
+  <si>
+    <t>全排列 II</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutations-ii/</t>
+  </si>
+  <si>
     <t>Day 1</t>
   </si>
   <si>
@@ -466,6 +593,9 @@
   </si>
   <si>
     <t>Day 13</t>
+  </si>
+  <si>
+    <t>104. 二叉树的最大深度</t>
   </si>
   <si>
     <t>Day 14</t>
@@ -644,9 +774,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -731,21 +861,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,32 +922,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -823,14 +953,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -840,7 +962,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,7 +976,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,31 +1054,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,85 +1090,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +1126,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,25 +1174,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,11 +1278,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,30 +1332,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1237,6 +1358,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1250,152 +1380,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1428,6 +1558,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1806,86 +1978,86 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="26" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="26" customWidth="1"/>
-    <col min="8" max="8" width="9.06666666666667" style="26" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="26" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="40" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="40" customWidth="1"/>
+    <col min="8" max="8" width="9.06666666666667" style="40" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="36"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="44"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="31">
+      <c r="A5" s="45">
         <v>11</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="7">
         <v>44288</v>
       </c>
@@ -1895,23 +2067,23 @@
       <c r="G5" s="7">
         <v>44289</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="26" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="33">
+      <c r="A6" s="47">
         <v>283</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="7">
         <v>44288</v>
       </c>
@@ -1921,20 +2093,20 @@
       <c r="G6" s="7">
         <v>44289</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="33">
+      <c r="A7" s="47">
         <v>70</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="7">
         <v>44288</v>
       </c>
@@ -1944,54 +2116,54 @@
       <c r="G7" s="7">
         <v>44288</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="31">
+      <c r="A8" s="45">
         <v>15</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="33">
+      <c r="A9" s="47">
         <v>206</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="31">
+      <c r="A10" s="45">
         <v>24</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="7">
         <v>44289</v>
       </c>
@@ -2001,185 +2173,185 @@
       <c r="G10" s="7">
         <v>44290</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="33">
+      <c r="A11" s="47">
         <v>141</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="31">
+      <c r="A12" s="45">
         <v>142</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="34">
+      <c r="A13" s="48">
         <v>25</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="33">
+      <c r="A14" s="47">
         <v>20</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="33">
+      <c r="A15" s="47">
         <v>155</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="34">
+      <c r="A16" s="48">
         <v>84</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="34">
+      <c r="A17" s="48">
         <v>239</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="7">
         <v>44294</v>
       </c>
       <c r="F17" s="7">
         <v>44294</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="44"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="33">
+      <c r="A22" s="47">
         <v>26</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="33">
+      <c r="A23" s="47">
         <v>189</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="33">
+      <c r="A24" s="47">
         <v>21</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="7">
         <v>44290</v>
       </c>
@@ -2189,37 +2361,37 @@
       <c r="G24" s="7">
         <v>44291</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="33">
+      <c r="A25" s="47">
         <v>88</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="33">
+      <c r="A26" s="47">
         <v>1</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="7">
         <v>44288</v>
       </c>
@@ -2229,20 +2401,20 @@
       <c r="G26" s="7">
         <v>44289</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="33">
+      <c r="A27" s="47">
         <v>66</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="7">
         <v>44288</v>
       </c>
@@ -2252,46 +2424,46 @@
       <c r="G27" s="7">
         <v>44288</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="31">
+      <c r="A28" s="45">
         <v>641</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="7">
         <v>44292</v>
       </c>
       <c r="F28" s="7">
         <v>44292</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="34">
+      <c r="A29" s="48">
         <v>42</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2353,82 +2525,82 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="16">
+      <c r="A5" s="30">
         <v>242</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="7">
         <v>44291</v>
       </c>
@@ -2438,37 +2610,37 @@
       <c r="G5" s="7">
         <v>44292</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="20">
+      <c r="A6" s="34">
         <v>49</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16">
+      <c r="A7" s="30">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="7">
         <v>44291</v>
       </c>
@@ -2478,29 +2650,29 @@
       <c r="G7" s="7">
         <v>44292</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="20">
+      <c r="A8" s="34">
         <v>94</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="7">
         <v>44294</v>
       </c>
       <c r="F8" s="7">
         <v>44294</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
       <c r="K8" t="s">
         <v>64</v>
       </c>
@@ -2509,217 +2681,217 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="20">
+      <c r="A9" s="34">
         <v>144</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="7">
         <v>44294</v>
       </c>
       <c r="F9" s="7">
         <v>44294</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="16">
+      <c r="A10" s="30">
         <v>590</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="7">
         <v>44295</v>
       </c>
       <c r="F10" s="7">
         <v>44295</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="16">
+      <c r="A11" s="30">
         <v>589</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="7">
         <v>44295</v>
       </c>
       <c r="F11" s="7">
         <v>44295</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="20">
+      <c r="A12" s="34">
         <v>429</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="7">
         <v>44297</v>
       </c>
       <c r="F12" s="7">
         <v>44297</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="32"/>
       <c r="M12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="23">
+      <c r="A14" s="37">
         <v>239</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="7">
         <v>44294</v>
       </c>
       <c r="F14" s="7">
         <v>44294</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="24"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="24"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="7">
         <v>44297</v>
       </c>
       <c r="F19" s="7">
         <v>44297</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="20">
+      <c r="A20" s="34">
         <v>347</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="7">
         <v>44297</v>
       </c>
       <c r="F20" s="7">
         <v>44297</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2752,14 +2924,454 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="76.25" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="9" width="3.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:9">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="16">
+        <v>70</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="20">
+        <v>22</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16">
+        <v>226</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="20">
+        <v>98</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="16">
+        <v>104</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="7">
+        <v>44298</v>
+      </c>
+      <c r="F9" s="7">
+        <v>44298</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16">
+        <v>111</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="23">
+        <v>297</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="20">
+        <v>50</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="20">
+        <v>78</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="16">
+        <v>169</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="20">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="24">
+        <v>51</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="20">
+        <v>236</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="20">
+        <v>105</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="20">
+        <v>77</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="20">
+        <v>46</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="20">
+        <v>47</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://leetcode.com/problems/climbing-stairs/" tooltip="https://leetcode.com/problems/climbing-stairs/"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://leetcode-cn.com/problems/generate-parentheses/#/description"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://leetcode-cn.com/problems/invert-binary-tree/description/" tooltip="https://leetcode-cn.com/problems/invert-binary-tree/description/"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/validate-binary-search-tree/" tooltip="https://leetcode-cn.com/problems/validate-binary-search-tree/"/>
+    <hyperlink ref="C9" r:id="rId5" display="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/" tooltip="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/" tooltip="https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/"/>
+    <hyperlink ref="C11" r:id="rId7" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/" tooltip="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://leetcode-cn.com/problems/powx-n/" tooltip="https://leetcode-cn.com/problems/powx-n/"/>
+    <hyperlink ref="C13" r:id="rId9" display="https://leetcode-cn.com/problems/subsets/" tooltip="https://leetcode-cn.com/problems/subsets/"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://leetcode-cn.com/problems/majority-element/description/" tooltip="https://leetcode-cn.com/problems/majority-element/description/"/>
+    <hyperlink ref="C15" r:id="rId11" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/" tooltip="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="C16" r:id="rId12" display="https://leetcode-cn.com/problems/n-queens/" tooltip="https://leetcode-cn.com/problems/n-queens/"/>
+    <hyperlink ref="C21" r:id="rId13" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
+    <hyperlink ref="C22" r:id="rId14" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" tooltip="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
+    <hyperlink ref="C23" r:id="rId15" display="https://leetcode-cn.com/problems/combinations/" tooltip="https://leetcode-cn.com/problems/combinations/"/>
+    <hyperlink ref="C24" r:id="rId16" display="https://leetcode-cn.com/problems/permutations/" tooltip="https://leetcode-cn.com/problems/permutations/"/>
+    <hyperlink ref="C25" r:id="rId17" display="https://leetcode-cn.com/problems/permutations-ii/" tooltip="https://leetcode-cn.com/problems/permutations-ii/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2771,7 +3383,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2813,16 +3425,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="E2" s="7">
         <v>44286</v>
@@ -2840,16 +3452,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E3" s="7">
         <v>44287</v>
@@ -2867,16 +3479,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E4" s="7">
         <v>44288</v>
@@ -2894,16 +3506,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E5" s="7">
         <v>44289</v>
@@ -2921,16 +3533,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E6" s="7">
         <v>44290</v>
@@ -2948,13 +3560,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7">
@@ -2973,13 +3585,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7">
@@ -2994,13 +3606,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7">
@@ -3017,13 +3629,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7">
@@ -3040,13 +3652,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7">
@@ -3063,13 +3675,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7">
@@ -3086,13 +3698,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7">
@@ -3101,26 +3713,36 @@
       <c r="F13" s="7">
         <v>44297</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="7">
+        <v>44298</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="7">
+        <v>44298</v>
+      </c>
+      <c r="F14" s="7">
+        <v>44298</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3133,7 +3755,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3146,7 +3768,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3159,7 +3781,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3172,7 +3794,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3185,7 +3807,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="9"/>
@@ -3198,7 +3820,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3211,7 +3833,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3224,7 +3846,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3237,7 +3859,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3250,7 +3872,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3263,7 +3885,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3276,7 +3898,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3289,7 +3911,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3302,7 +3924,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3315,7 +3937,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3328,7 +3950,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3341,7 +3963,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3354,7 +3976,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3367,7 +3989,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -3380,7 +4002,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3393,7 +4015,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3406,7 +4028,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3419,7 +4041,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3432,7 +4054,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3445,7 +4067,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3458,7 +4080,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3471,7 +4093,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3484,7 +4106,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3497,7 +4119,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3510,7 +4132,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3523,7 +4145,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3536,7 +4158,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3549,7 +4171,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3562,7 +4184,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3575,7 +4197,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3588,7 +4210,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3601,7 +4223,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3614,7 +4236,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3627,7 +4249,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3640,7 +4262,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3653,7 +4275,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3666,7 +4288,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3679,7 +4301,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3692,7 +4314,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -3705,7 +4327,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3718,7 +4340,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -3731,7 +4353,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -3744,7 +4366,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3757,7 +4379,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3770,7 +4392,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3783,7 +4405,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3796,7 +4418,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3809,7 +4431,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3822,7 +4444,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3835,7 +4457,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3848,7 +4470,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="8"/>
@@ -3879,6 +4501,7 @@
     <hyperlink ref="B11" r:id="rId10" display="1021. 删除最外层的括号" tooltip="https://leetcode-cn.com/problems/remove-outermost-parentheses/"/>
     <hyperlink ref="B12" r:id="rId11" display="412. Fizz Buzz" tooltip="https://leetcode-cn.com/problems/fizz-buzz/"/>
     <hyperlink ref="B13" r:id="rId12" display="258. 各位相加" tooltip="https://leetcode-cn.com/problems/add-digits/"/>
+    <hyperlink ref="B14" r:id="rId13" display="104. 二叉树的最大深度" tooltip="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
   <si>
     <t>题号</t>
   </si>
@@ -361,6 +361,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>第7课：泛型递归、树的递归</t>
     </r>
     <r>
@@ -601,6 +609,9 @@
     <t>Day 14</t>
   </si>
   <si>
+    <t>51. N 皇后</t>
+  </si>
+  <si>
     <t>Day 15</t>
   </si>
   <si>
@@ -774,9 +785,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -854,7 +865,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,30 +878,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -898,7 +902,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,9 +926,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -953,10 +964,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,23 +979,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,7 +1065,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,13 +1221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,157 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,30 +1289,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1313,6 +1300,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1334,39 +1345,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1375,157 +1353,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1583,9 +1594,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1601,44 +1609,11 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1983,81 +1958,81 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="40" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="40" customWidth="1"/>
-    <col min="8" max="8" width="9.06666666666667" style="40" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="40" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="28" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.06666666666667" style="28" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="49"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="50"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="32"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="45">
+      <c r="A5" s="33">
         <v>11</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="7">
         <v>44288</v>
       </c>
@@ -2067,23 +2042,23 @@
       <c r="G5" s="7">
         <v>44289</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="40" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="47">
+      <c r="A6" s="35">
         <v>283</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="7">
         <v>44288</v>
       </c>
@@ -2093,20 +2068,20 @@
       <c r="G6" s="7">
         <v>44289</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="47">
+      <c r="A7" s="35">
         <v>70</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="7">
         <v>44288</v>
       </c>
@@ -2116,54 +2091,54 @@
       <c r="G7" s="7">
         <v>44288</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="45">
+      <c r="A8" s="33">
         <v>15</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="47">
+      <c r="A9" s="35">
         <v>206</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="45">
+      <c r="A10" s="33">
         <v>24</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="7">
         <v>44289</v>
       </c>
@@ -2173,185 +2148,185 @@
       <c r="G10" s="7">
         <v>44290</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="47">
+      <c r="A11" s="35">
         <v>141</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="45">
+      <c r="A12" s="33">
         <v>142</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="48">
+      <c r="A13" s="36">
         <v>25</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="47">
+      <c r="A14" s="35">
         <v>20</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="47">
+      <c r="A15" s="35">
         <v>155</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="48">
+      <c r="A16" s="36">
         <v>84</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="48">
+      <c r="A17" s="36">
         <v>239</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="46"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="7">
         <v>44294</v>
       </c>
       <c r="F17" s="7">
         <v>44294</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="32"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="47">
+      <c r="A22" s="35">
         <v>26</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="47">
+      <c r="A23" s="35">
         <v>189</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="47">
+      <c r="A24" s="35">
         <v>21</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="7">
         <v>44290</v>
       </c>
@@ -2361,37 +2336,37 @@
       <c r="G24" s="7">
         <v>44291</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="47">
+      <c r="A25" s="35">
         <v>88</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="47">
+      <c r="A26" s="35">
         <v>1</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="7">
         <v>44288</v>
       </c>
@@ -2401,20 +2376,20 @@
       <c r="G26" s="7">
         <v>44289</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="47">
+      <c r="A27" s="35">
         <v>66</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="46"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="7">
         <v>44288</v>
       </c>
@@ -2424,46 +2399,46 @@
       <c r="G27" s="7">
         <v>44288</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="45">
+      <c r="A28" s="33">
         <v>641</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="46"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="7">
         <v>44292</v>
       </c>
       <c r="F28" s="7">
         <v>44292</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="48">
+      <c r="A29" s="36">
         <v>42</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2525,82 +2500,82 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:9">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="30">
+      <c r="A5" s="16">
         <v>242</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="7">
         <v>44291</v>
       </c>
@@ -2610,37 +2585,37 @@
       <c r="G5" s="7">
         <v>44292</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="34">
+      <c r="A6" s="19">
         <v>49</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="32"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="30">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="7">
         <v>44291</v>
       </c>
@@ -2650,29 +2625,29 @@
       <c r="G7" s="7">
         <v>44292</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="34">
+      <c r="A8" s="19">
         <v>94</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="7">
         <v>44294</v>
       </c>
       <c r="F8" s="7">
         <v>44294</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="32"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="18"/>
       <c r="K8" t="s">
         <v>64</v>
       </c>
@@ -2681,217 +2656,217 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="34">
+      <c r="A9" s="19">
         <v>144</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="7">
         <v>44294</v>
       </c>
       <c r="F9" s="7">
         <v>44294</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="32"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="30">
+      <c r="A10" s="16">
         <v>590</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="7">
         <v>44295</v>
       </c>
       <c r="F10" s="7">
         <v>44295</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="32"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="30">
+      <c r="A11" s="16">
         <v>589</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="7">
         <v>44295</v>
       </c>
       <c r="F11" s="7">
         <v>44295</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="32"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="34">
+      <c r="A12" s="19">
         <v>429</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="7">
         <v>44297</v>
       </c>
       <c r="F12" s="7">
         <v>44297</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="32"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="18"/>
       <c r="M12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="37">
+      <c r="A14" s="23">
         <v>239</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="7">
         <v>44294</v>
       </c>
       <c r="F14" s="7">
         <v>44294</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="38"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="38"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="7">
         <v>44297</v>
       </c>
       <c r="F19" s="7">
         <v>44297</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="32"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="34">
+      <c r="A20" s="19">
         <v>347</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="7">
         <v>44297</v>
       </c>
       <c r="F20" s="7">
         <v>44297</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2927,7 +2902,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3017,14 +2992,18 @@
         <v>17</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="7">
+        <v>44299</v>
+      </c>
+      <c r="F5" s="7">
+        <v>44299</v>
+      </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>22</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -3033,135 +3012,143 @@
       <c r="C6" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16">
         <v>226</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="7">
+        <v>44299</v>
+      </c>
+      <c r="F7" s="7">
+        <v>44299</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>98</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="16">
         <v>104</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="7">
         <v>44298</v>
       </c>
       <c r="F9" s="7">
         <v>44298</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="16">
         <v>111</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="7">
+        <v>44299</v>
+      </c>
+      <c r="F10" s="7">
+        <v>44299</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>297</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>50</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>78</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="16">
@@ -3174,14 +3161,18 @@
         <v>102</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="E14" s="7">
+        <v>44299</v>
+      </c>
+      <c r="F14" s="7">
+        <v>44299</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>17</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -3190,15 +3181,15 @@
       <c r="C15" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>51</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -3207,12 +3198,16 @@
       <c r="C16" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7">
+        <v>44299</v>
+      </c>
+      <c r="F16" s="7">
+        <v>44299</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="15"/>
@@ -3261,89 +3256,89 @@
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>236</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>107</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>105</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>77</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>46</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>47</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3383,7 +3378,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3624,7 +3619,9 @@
       <c r="G9" s="7">
         <v>44294</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="7">
+        <v>44299</v>
+      </c>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9">
@@ -3736,7 +3733,9 @@
       <c r="F14" s="7">
         <v>44298</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7">
+        <v>44299</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
@@ -3744,18 +3743,26 @@
       <c r="A15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="7">
+        <v>44299</v>
+      </c>
+      <c r="F15" s="7">
+        <v>44299</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3768,7 +3775,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3781,7 +3788,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3794,7 +3801,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3807,7 +3814,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="9"/>
@@ -3820,7 +3827,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3833,7 +3840,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3846,7 +3853,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3859,7 +3866,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3872,7 +3879,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3885,7 +3892,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3898,7 +3905,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3911,7 +3918,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3924,7 +3931,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3937,7 +3944,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3950,7 +3957,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3963,7 +3970,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3976,7 +3983,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3989,7 +3996,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4002,7 +4009,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4015,7 +4022,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4028,7 +4035,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4041,7 +4048,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4054,7 +4061,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4067,7 +4074,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4080,7 +4087,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4093,7 +4100,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4106,7 +4113,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4119,7 +4126,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4132,7 +4139,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4145,7 +4152,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4158,7 +4165,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4171,7 +4178,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4184,7 +4191,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4197,7 +4204,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4210,7 +4217,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4223,7 +4230,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4236,7 +4243,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4249,7 +4256,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4262,7 +4269,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4275,7 +4282,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4288,7 +4295,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4301,7 +4308,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4314,7 +4321,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4327,7 +4334,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4340,7 +4347,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4353,7 +4360,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4366,7 +4373,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4379,7 +4386,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4392,7 +4399,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4405,7 +4412,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4418,7 +4425,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4431,7 +4438,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4444,7 +4451,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4457,7 +4464,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4470,7 +4477,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="8"/>
@@ -4502,6 +4509,7 @@
     <hyperlink ref="B12" r:id="rId11" display="412. Fizz Buzz" tooltip="https://leetcode-cn.com/problems/fizz-buzz/"/>
     <hyperlink ref="B13" r:id="rId12" display="258. 各位相加" tooltip="https://leetcode-cn.com/problems/add-digits/"/>
     <hyperlink ref="B14" r:id="rId13" display="104. 二叉树的最大深度" tooltip="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/"/>
+    <hyperlink ref="B15" r:id="rId14" display="51. N 皇后" tooltip="https://leetcode-cn.com/problems/n-queens/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="214">
   <si>
     <t>题号</t>
   </si>
@@ -567,10 +567,10 @@
     <t>Day 9</t>
   </si>
   <si>
-    <t>面试题59 - I. 滑动窗口的最大值</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof/</t>
+    <t>239. 滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sliding-window-maximum/</t>
   </si>
   <si>
     <t>Day 10</t>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>Day 15</t>
+  </si>
+  <si>
+    <t>94.二叉树的中序遍历</t>
   </si>
   <si>
     <t>Day 16</t>
@@ -785,9 +788,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -816,6 +819,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,6 +869,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -871,10 +897,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -895,84 +990,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -982,20 +999,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,19 +1068,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1098,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,31 +1194,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,109 +1248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,6 +1292,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1300,6 +1312,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,50 +1375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1391,152 +1394,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,6 +1567,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1573,13 +1579,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1612,46 +1618,46 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1958,81 +1964,81 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="28" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.06666666666667" style="28" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="28" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="29" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="29" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9.06666666666667" style="29" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="38"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="33">
+      <c r="A5" s="34">
         <v>11</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="7">
         <v>44288</v>
       </c>
@@ -2042,23 +2048,23 @@
       <c r="G5" s="7">
         <v>44289</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="28" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="35">
+      <c r="A6" s="36">
         <v>283</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="7">
         <v>44288</v>
       </c>
@@ -2068,20 +2074,20 @@
       <c r="G6" s="7">
         <v>44289</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="35">
+      <c r="A7" s="36">
         <v>70</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="7">
         <v>44288</v>
       </c>
@@ -2091,54 +2097,54 @@
       <c r="G7" s="7">
         <v>44288</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="33">
+      <c r="A8" s="34">
         <v>15</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="35">
+      <c r="A9" s="36">
         <v>206</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>24</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="7">
         <v>44289</v>
       </c>
@@ -2148,185 +2154,185 @@
       <c r="G10" s="7">
         <v>44290</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="35">
+      <c r="A11" s="36">
         <v>141</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="33">
+      <c r="A12" s="34">
         <v>142</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="36">
+      <c r="A13" s="37">
         <v>25</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="35">
+      <c r="A14" s="36">
         <v>20</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="35">
+      <c r="A15" s="36">
         <v>155</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="36">
+      <c r="A16" s="37">
         <v>84</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="36">
+      <c r="A17" s="37">
         <v>239</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="7">
         <v>44294</v>
       </c>
       <c r="F17" s="7">
         <v>44294</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="35">
+      <c r="A22" s="36">
         <v>26</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="35">
+      <c r="A23" s="36">
         <v>189</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="35">
+      <c r="A24" s="36">
         <v>21</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="7">
         <v>44290</v>
       </c>
@@ -2336,37 +2342,37 @@
       <c r="G24" s="7">
         <v>44291</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="35">
+      <c r="A25" s="36">
         <v>88</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="35">
+      <c r="A26" s="36">
         <v>1</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="7">
         <v>44288</v>
       </c>
@@ -2376,20 +2382,20 @@
       <c r="G26" s="7">
         <v>44289</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="35">
+      <c r="A27" s="36">
         <v>66</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="7">
         <v>44288</v>
       </c>
@@ -2399,46 +2405,46 @@
       <c r="G27" s="7">
         <v>44288</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="33">
+      <c r="A28" s="34">
         <v>641</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="7">
         <v>44292</v>
       </c>
       <c r="F28" s="7">
         <v>44292</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="36">
+      <c r="A29" s="37">
         <v>42</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2500,82 +2506,82 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="16">
+      <c r="A5" s="17">
         <v>242</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="7">
         <v>44291</v>
       </c>
@@ -2585,37 +2591,37 @@
       <c r="G5" s="7">
         <v>44292</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>49</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="7">
         <v>44291</v>
       </c>
@@ -2625,29 +2631,29 @@
       <c r="G7" s="7">
         <v>44292</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="19">
+      <c r="A8" s="20">
         <v>94</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="7">
         <v>44294</v>
       </c>
       <c r="F8" s="7">
         <v>44294</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="19"/>
       <c r="K8" t="s">
         <v>64</v>
       </c>
@@ -2656,217 +2662,217 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19">
+      <c r="A9" s="20">
         <v>144</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="7">
         <v>44294</v>
       </c>
       <c r="F9" s="7">
         <v>44294</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="16">
+      <c r="A10" s="17">
         <v>590</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="7">
         <v>44295</v>
       </c>
       <c r="F10" s="7">
         <v>44295</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="16">
+      <c r="A11" s="17">
         <v>589</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="7">
         <v>44295</v>
       </c>
       <c r="F11" s="7">
         <v>44295</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="19">
+      <c r="A12" s="20">
         <v>429</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="7">
         <v>44297</v>
       </c>
       <c r="F12" s="7">
         <v>44297</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19"/>
       <c r="M12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="23">
+      <c r="A14" s="24">
         <v>239</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="7">
         <v>44294</v>
       </c>
       <c r="F14" s="7">
         <v>44294</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="26"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="26"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="7">
         <v>44297</v>
       </c>
       <c r="F19" s="7">
         <v>44297</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="19">
+      <c r="A20" s="20">
         <v>347</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="7">
         <v>44297</v>
       </c>
       <c r="F20" s="7">
         <v>44297</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2902,7 +2908,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2916,429 +2922,433 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="16">
+      <c r="A5" s="17">
         <v>70</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="7">
         <v>44299</v>
       </c>
       <c r="F5" s="7">
         <v>44299</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>22</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="7">
+        <v>44300</v>
+      </c>
+      <c r="F6" s="7">
+        <v>44300</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16">
+      <c r="A7" s="17">
         <v>226</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="7">
         <v>44299</v>
       </c>
       <c r="F7" s="7">
         <v>44299</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="19">
+      <c r="A8" s="20">
         <v>98</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="16">
+      <c r="A9" s="17">
         <v>104</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="7">
         <v>44298</v>
       </c>
       <c r="F9" s="7">
         <v>44298</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="16">
+      <c r="A10" s="17">
         <v>111</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="7">
         <v>44299</v>
       </c>
       <c r="F10" s="7">
         <v>44299</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>297</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="19">
+      <c r="A12" s="20">
         <v>50</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="19">
+      <c r="A13" s="20">
         <v>78</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="16">
+      <c r="A14" s="17">
         <v>169</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="7">
         <v>44299</v>
       </c>
       <c r="F14" s="7">
         <v>44299</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="19">
+      <c r="A15" s="20">
         <v>17</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="23">
+      <c r="A16" s="24">
         <v>51</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="7">
         <v>44299</v>
       </c>
       <c r="F16" s="7">
         <v>44299</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="19">
+      <c r="A21" s="20">
         <v>236</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="19">
+      <c r="A22" s="20">
         <v>105</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="19">
+      <c r="A23" s="20">
         <v>77</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="19">
+      <c r="A24" s="20">
         <v>46</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="19">
+      <c r="A25" s="20">
         <v>47</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3378,7 +3388,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3631,7 +3641,7 @@
       <c r="B10" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D10" s="8"/>
@@ -3644,7 +3654,9 @@
       <c r="G10" s="7">
         <v>44295</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="7">
+        <v>44300</v>
+      </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9">
@@ -3756,7 +3768,9 @@
       <c r="F15" s="7">
         <v>44299</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7">
+        <v>44300</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
@@ -3764,18 +3778,26 @@
       <c r="A16" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="7">
+        <v>44300</v>
+      </c>
+      <c r="F16" s="7">
+        <v>44300</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3788,7 +3810,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3801,7 +3823,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3814,10 +3836,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -3827,7 +3849,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3840,7 +3862,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3853,7 +3875,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3866,7 +3888,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3879,7 +3901,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3892,7 +3914,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3905,7 +3927,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3918,7 +3940,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3931,7 +3953,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3944,7 +3966,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3957,7 +3979,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3970,7 +3992,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3983,7 +4005,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3996,7 +4018,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4009,7 +4031,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4022,7 +4044,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4035,7 +4057,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4048,7 +4070,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4061,7 +4083,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4074,7 +4096,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4087,7 +4109,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4100,7 +4122,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4113,7 +4135,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4126,7 +4148,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4139,7 +4161,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4152,7 +4174,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4165,7 +4187,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4178,7 +4200,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4191,7 +4213,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4204,7 +4226,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4217,7 +4239,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4230,7 +4252,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4243,7 +4265,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4256,7 +4278,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4269,7 +4291,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4282,7 +4304,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4295,7 +4317,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4308,7 +4330,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4321,7 +4343,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4334,7 +4356,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4347,7 +4369,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4360,7 +4382,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4373,7 +4395,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4386,7 +4408,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4399,7 +4421,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4412,7 +4434,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4425,7 +4447,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4438,7 +4460,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4451,7 +4473,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4464,7 +4486,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4477,9 +4499,9 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" s="10"/>
+        <v>213</v>
+      </c>
+      <c r="B71" s="11"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -4504,12 +4526,15 @@
     <hyperlink ref="C8" r:id="rId7" display="https://leetcode-cn.com/problems/design-circular-deque/"/>
     <hyperlink ref="B8" r:id="rId7" display="641. 设计循环双端队列" tooltip="https://leetcode-cn.com/problems/design-circular-deque/"/>
     <hyperlink ref="B9" r:id="rId8" display="350. 两个数组的交集 II" tooltip="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/"/>
-    <hyperlink ref="B10" r:id="rId9" display="面试题59 - I. 滑动窗口的最大值" tooltip="https://leetcode-cn.com/problems/hua-dong-chuang-kou-de-zui-da-zhi-lcof/"/>
-    <hyperlink ref="B11" r:id="rId10" display="1021. 删除最外层的括号" tooltip="https://leetcode-cn.com/problems/remove-outermost-parentheses/"/>
-    <hyperlink ref="B12" r:id="rId11" display="412. Fizz Buzz" tooltip="https://leetcode-cn.com/problems/fizz-buzz/"/>
-    <hyperlink ref="B13" r:id="rId12" display="258. 各位相加" tooltip="https://leetcode-cn.com/problems/add-digits/"/>
-    <hyperlink ref="B14" r:id="rId13" display="104. 二叉树的最大深度" tooltip="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/"/>
-    <hyperlink ref="B15" r:id="rId14" display="51. N 皇后" tooltip="https://leetcode-cn.com/problems/n-queens/"/>
+    <hyperlink ref="B11" r:id="rId9" display="1021. 删除最外层的括号" tooltip="https://leetcode-cn.com/problems/remove-outermost-parentheses/"/>
+    <hyperlink ref="B12" r:id="rId10" display="412. Fizz Buzz" tooltip="https://leetcode-cn.com/problems/fizz-buzz/"/>
+    <hyperlink ref="B13" r:id="rId11" display="258. 各位相加" tooltip="https://leetcode-cn.com/problems/add-digits/"/>
+    <hyperlink ref="B14" r:id="rId12" display="104. 二叉树的最大深度" tooltip="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/"/>
+    <hyperlink ref="B15" r:id="rId13" display="51. N 皇后" tooltip="https://leetcode-cn.com/problems/n-queens/"/>
+    <hyperlink ref="B16" r:id="rId14" display="94.二叉树的中序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="C16" r:id="rId14" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="B10" r:id="rId15" display="239. 滑动窗口最大值" tooltip="https://leetcode-cn.com/problems/sliding-window-maximum/"/>
+    <hyperlink ref="C10" r:id="rId15" display="https://leetcode-cn.com/problems/sliding-window-maximum/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView windowHeight="17940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="216">
   <si>
     <t>题号</t>
   </si>
@@ -621,6 +621,12 @@
     <t>Day 16</t>
   </si>
   <si>
+    <t>剑指 Offer 05. 替换空格</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/ti-huan-kong-ge-lcof/</t>
+  </si>
+  <si>
     <t>Day 17</t>
   </si>
   <si>
@@ -788,10 +794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -869,7 +875,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,108 +964,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -999,6 +983,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,7 +1074,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,85 +1170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,19 +1188,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,13 +1224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,31 +1236,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,11 +1298,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1312,26 +1333,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1354,23 +1355,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1389,36 +1384,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1427,115 +1433,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2907,8 +2913,8 @@
   <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3387,8 +3393,8 @@
   <sheetPr/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3679,7 +3685,9 @@
       <c r="G11" s="7">
         <v>44296</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="7">
+        <v>44301</v>
+      </c>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
@@ -3791,7 +3799,9 @@
       <c r="F16" s="7">
         <v>44300</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7">
+        <v>44301</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
@@ -3799,18 +3809,26 @@
       <c r="A17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="7">
+        <v>44301</v>
+      </c>
+      <c r="F17" s="7">
+        <v>44301</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -3823,7 +3841,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -3836,7 +3854,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="10"/>
@@ -3849,7 +3867,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3862,7 +3880,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3875,7 +3893,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3888,7 +3906,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3901,7 +3919,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3914,7 +3932,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3927,7 +3945,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3940,7 +3958,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3953,7 +3971,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3966,7 +3984,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3979,7 +3997,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -3992,7 +4010,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4005,7 +4023,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4018,7 +4036,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4031,7 +4049,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4044,7 +4062,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4057,7 +4075,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4070,7 +4088,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4083,7 +4101,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4096,7 +4114,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4109,7 +4127,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4122,7 +4140,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4135,7 +4153,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4148,7 +4166,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4161,7 +4179,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4174,7 +4192,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4187,7 +4205,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4200,7 +4218,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4213,7 +4231,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4226,7 +4244,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4239,7 +4257,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4252,7 +4270,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4265,7 +4283,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4278,7 +4296,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4291,7 +4309,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4304,7 +4322,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4317,7 +4335,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4330,7 +4348,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4343,7 +4361,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4356,7 +4374,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4369,7 +4387,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4382,7 +4400,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4395,7 +4413,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4408,7 +4426,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4421,7 +4439,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4434,7 +4452,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4447,7 +4465,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4460,7 +4478,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4473,7 +4491,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4486,7 +4504,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4499,7 +4517,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="8"/>
@@ -4535,6 +4553,7 @@
     <hyperlink ref="C16" r:id="rId14" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/"/>
     <hyperlink ref="B10" r:id="rId15" display="239. 滑动窗口最大值" tooltip="https://leetcode-cn.com/problems/sliding-window-maximum/"/>
     <hyperlink ref="C10" r:id="rId15" display="https://leetcode-cn.com/problems/sliding-window-maximum/"/>
+    <hyperlink ref="B17" r:id="rId16" display="剑指 Offer 05. 替换空格" tooltip="https://leetcode-cn.com/problems/ti-huan-kong-ge-lcof/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="3"/>
+    <workbookView windowHeight="17940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="219">
   <si>
     <t>题号</t>
   </si>
@@ -630,7 +630,16 @@
     <t>Day 17</t>
   </si>
   <si>
+    <t>剑指 Offer 06. 从尾到头打印链表</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/cong-wei-dao-tou-da-yin-lian-biao-lcof/</t>
+  </si>
+  <si>
     <t>Day 18</t>
+  </si>
+  <si>
+    <t>236. 二叉树的最近公共祖先</t>
   </si>
   <si>
     <t>Day 19</t>
@@ -794,10 +803,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -875,29 +884,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,10 +925,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,6 +938,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -965,14 +989,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -988,23 +1004,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,7 +1083,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,25 +1179,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,13 +1203,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,127 +1251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,6 +1308,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1309,30 +1342,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,15 +1357,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,6 +1387,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1403,28 +1412,28 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1433,13 +1442,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1448,100 +1457,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1553,32 +1562,29 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1604,6 +1610,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2045,13 +2054,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="7">
+      <c r="E5" s="19">
         <v>44288</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="19">
         <v>44288</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="19">
         <v>44289</v>
       </c>
       <c r="H5" s="35"/>
@@ -2071,13 +2080,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="35"/>
-      <c r="E6" s="7">
+      <c r="E6" s="19">
         <v>44288</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="19">
         <v>44288</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="19">
         <v>44289</v>
       </c>
       <c r="H6" s="35"/>
@@ -2094,13 +2103,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="7">
+      <c r="E7" s="19">
         <v>44288</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="19">
         <v>44288</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="19">
         <v>44288</v>
       </c>
       <c r="H7" s="35"/>
@@ -2151,13 +2160,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="35"/>
-      <c r="E10" s="7">
+      <c r="E10" s="19">
         <v>44289</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="19">
         <v>44289</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="19">
         <v>44290</v>
       </c>
       <c r="H10" s="35"/>
@@ -2276,10 +2285,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="35"/>
-      <c r="E17" s="7">
+      <c r="E17" s="19">
         <v>44294</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="19">
         <v>44294</v>
       </c>
       <c r="G17" s="35"/>
@@ -2339,13 +2348,13 @@
         <v>44</v>
       </c>
       <c r="D24" s="35"/>
-      <c r="E24" s="7">
+      <c r="E24" s="19">
         <v>44290</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="19">
         <v>44290</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="19">
         <v>44291</v>
       </c>
       <c r="H24" s="35"/>
@@ -2379,13 +2388,13 @@
         <v>48</v>
       </c>
       <c r="D26" s="35"/>
-      <c r="E26" s="7">
+      <c r="E26" s="19">
         <v>44288</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="19">
         <v>44288</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="19">
         <v>44289</v>
       </c>
       <c r="H26" s="35"/>
@@ -2402,13 +2411,13 @@
         <v>50</v>
       </c>
       <c r="D27" s="35"/>
-      <c r="E27" s="7">
+      <c r="E27" s="19">
         <v>44288</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="19">
         <v>44288</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="19">
         <v>44288</v>
       </c>
       <c r="H27" s="35"/>
@@ -2425,10 +2434,10 @@
         <v>52</v>
       </c>
       <c r="D28" s="35"/>
-      <c r="E28" s="7">
+      <c r="E28" s="19">
         <v>44292</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="19">
         <v>44292</v>
       </c>
       <c r="G28" s="35"/>
@@ -2512,154 +2521,154 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>242</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="7">
+      <c r="D5" s="18"/>
+      <c r="E5" s="19">
         <v>44291</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="19">
         <v>44291</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="19">
         <v>44292</v>
       </c>
       <c r="H5" s="21"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="20">
         <v>49</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="7">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19">
         <v>44291</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="19">
         <v>44291</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="19">
         <v>44292</v>
       </c>
       <c r="H7" s="21"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="20">
         <v>94</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="7">
+      <c r="D8" s="18"/>
+      <c r="E8" s="19">
         <v>44294</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="19">
         <v>44294</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="18"/>
       <c r="K8" t="s">
         <v>64</v>
       </c>
@@ -2671,85 +2680,85 @@
       <c r="A9" s="20">
         <v>144</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="7">
+      <c r="D9" s="18"/>
+      <c r="E9" s="19">
         <v>44294</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="19">
         <v>44294</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>590</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="7">
+      <c r="D10" s="18"/>
+      <c r="E10" s="19">
         <v>44295</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="19">
         <v>44295</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>589</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="7">
+      <c r="D11" s="18"/>
+      <c r="E11" s="19">
         <v>44295</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="19">
         <v>44295</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="20">
         <v>429</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="7">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19">
         <v>44297</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="19">
         <v>44297</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="18"/>
       <c r="M12" t="s">
         <v>74</v>
       </c>
@@ -2758,34 +2767,34 @@
       <c r="A13" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="24">
         <v>239</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="21"/>
-      <c r="E14" s="7">
+      <c r="E14" s="19">
         <v>44294</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="19">
         <v>44294</v>
       </c>
       <c r="G14" s="21"/>
@@ -2794,91 +2803,91 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="27"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="27"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="7">
+      <c r="D19" s="18"/>
+      <c r="E19" s="19">
         <v>44297</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="19">
         <v>44297</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="20">
         <v>347</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="7">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19">
         <v>44297</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="19">
         <v>44297</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2913,8 +2922,8 @@
   <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2928,107 +2937,107 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>70</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="7">
+      <c r="D5" s="18"/>
+      <c r="E5" s="19">
         <v>44299</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="19">
         <v>44299</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="20">
         <v>22</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="7">
+      <c r="E6" s="19">
         <v>44300</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="19">
         <v>44300</v>
       </c>
       <c r="G6" s="21"/>
@@ -3036,7 +3045,7 @@
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>226</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -3046,10 +3055,10 @@
         <v>88</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="7">
+      <c r="E7" s="19">
         <v>44299</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="19">
         <v>44299</v>
       </c>
       <c r="G7" s="22"/>
@@ -3067,14 +3076,18 @@
         <v>90</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="19">
+        <v>44300</v>
+      </c>
+      <c r="F8" s="19">
+        <v>44300</v>
+      </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>104</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -3084,10 +3097,10 @@
         <v>92</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="7">
+      <c r="E9" s="19">
         <v>44298</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="19">
         <v>44298</v>
       </c>
       <c r="G9" s="22"/>
@@ -3095,7 +3108,7 @@
       <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>111</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -3105,10 +3118,10 @@
         <v>94</v>
       </c>
       <c r="D10" s="22"/>
-      <c r="E10" s="7">
+      <c r="E10" s="19">
         <v>44299</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="19">
         <v>44299</v>
       </c>
       <c r="G10" s="22"/>
@@ -3143,8 +3156,12 @@
         <v>98</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="19">
+        <v>44302</v>
+      </c>
+      <c r="F12" s="19">
+        <v>44302</v>
+      </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -3160,27 +3177,31 @@
         <v>100</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="19">
+        <v>44303</v>
+      </c>
+      <c r="F13" s="19">
+        <v>44303</v>
+      </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>169</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="7">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19">
         <v>44299</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="19">
         <v>44299</v>
       </c>
       <c r="G14" s="21"/>
@@ -3191,15 +3212,19 @@
       <c r="A15" s="20">
         <v>17</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="19">
+        <v>44303</v>
+      </c>
+      <c r="F15" s="19">
+        <v>44303</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -3208,17 +3233,17 @@
       <c r="A16" s="24">
         <v>51</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>106</v>
       </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="7">
+      <c r="E16" s="19">
         <v>44299</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="19">
         <v>44299</v>
       </c>
       <c r="G16" s="21"/>
@@ -3226,50 +3251,50 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="20">
@@ -3278,7 +3303,7 @@
       <c r="B21" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D21" s="22"/>
@@ -3295,7 +3320,7 @@
       <c r="B22" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D22" s="22"/>
@@ -3312,7 +3337,7 @@
       <c r="B23" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D23" s="22"/>
@@ -3329,7 +3354,7 @@
       <c r="B24" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D24" s="22"/>
@@ -3346,7 +3371,7 @@
       <c r="B25" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D25" s="22"/>
@@ -3393,14 +3418,14 @@
   <sheetPr/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.73333333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.2333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="70.375" customWidth="1"/>
     <col min="4" max="4" width="16.4" customWidth="1"/>
     <col min="5" max="8" width="8.125" customWidth="1"/>
@@ -3710,7 +3735,9 @@
       <c r="G12" s="7">
         <v>44297</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="7">
+        <v>44302</v>
+      </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9">
@@ -3822,7 +3849,9 @@
       <c r="F17" s="7">
         <v>44301</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7">
+        <v>44302</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
@@ -3830,21 +3859,33 @@
       <c r="A18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="7">
+        <v>44302</v>
+      </c>
+      <c r="F18" s="7">
+        <v>44302</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -3854,10 +3895,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -3867,7 +3908,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3880,7 +3921,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3893,7 +3934,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3906,7 +3947,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3919,7 +3960,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3932,7 +3973,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3945,7 +3986,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3958,7 +3999,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3971,7 +4012,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3984,7 +4025,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3997,7 +4038,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4010,7 +4051,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4023,7 +4064,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4036,7 +4077,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4049,7 +4090,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4062,7 +4103,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4075,7 +4116,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4088,7 +4129,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4101,7 +4142,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4114,7 +4155,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4127,7 +4168,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4140,7 +4181,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4153,7 +4194,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4166,7 +4207,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4179,7 +4220,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4192,7 +4233,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4205,7 +4246,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4218,7 +4259,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4231,7 +4272,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4244,7 +4285,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4257,7 +4298,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4270,7 +4311,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4283,7 +4324,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4296,7 +4337,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4309,7 +4350,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4322,7 +4363,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4335,7 +4376,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4348,7 +4389,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4361,7 +4402,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4374,7 +4415,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4387,7 +4428,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4400,7 +4441,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4413,7 +4454,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4426,7 +4467,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4439,7 +4480,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4452,7 +4493,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4465,7 +4506,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4478,7 +4519,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4491,7 +4532,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4504,7 +4545,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4517,9 +4558,9 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B71" s="11"/>
+        <v>218</v>
+      </c>
+      <c r="B71" s="10"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -4554,6 +4595,8 @@
     <hyperlink ref="B10" r:id="rId15" display="239. 滑动窗口最大值" tooltip="https://leetcode-cn.com/problems/sliding-window-maximum/"/>
     <hyperlink ref="C10" r:id="rId15" display="https://leetcode-cn.com/problems/sliding-window-maximum/"/>
     <hyperlink ref="B17" r:id="rId16" display="剑指 Offer 05. 替换空格" tooltip="https://leetcode-cn.com/problems/ti-huan-kong-ge-lcof/"/>
+    <hyperlink ref="B18" r:id="rId17" display="剑指 Offer 06. 从尾到头打印链表" tooltip="https://leetcode-cn.com/problems/cong-wei-dao-tou-da-yin-lian-biao-lcof/"/>
+    <hyperlink ref="B19" r:id="rId18" display="236. 二叉树的最近公共祖先" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -803,9 +803,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -884,21 +884,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,31 +911,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,7 +921,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,26 +943,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -998,22 +960,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,7 +1089,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,25 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,139 +1257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,6 +1307,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1324,24 +1333,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1357,15 +1353,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1388,19 +1375,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1409,31 +1409,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1442,115 +1442,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2923,7 +2923,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C19" sqref="C31 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3307,8 +3307,12 @@
         <v>108</v>
       </c>
       <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="E21" s="19">
+        <v>44303</v>
+      </c>
+      <c r="F21" s="19">
+        <v>44303</v>
+      </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -3324,8 +3328,12 @@
         <v>110</v>
       </c>
       <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="19">
+        <v>44303</v>
+      </c>
+      <c r="F22" s="19">
+        <v>44303</v>
+      </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -3341,8 +3349,12 @@
         <v>112</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="E23" s="19">
+        <v>44303</v>
+      </c>
+      <c r="F23" s="19">
+        <v>44303</v>
+      </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -3419,7 +3431,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C25" sqref="E19 F19 C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3760,7 +3772,9 @@
       <c r="G13" s="7">
         <v>44298</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="7">
+        <v>44303</v>
+      </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9">
@@ -3872,7 +3886,9 @@
       <c r="F18" s="7">
         <v>44302</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7">
+        <v>44303</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
@@ -3887,8 +3903,12 @@
         <v>108</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="7">
+        <v>44303</v>
+      </c>
+      <c r="F19" s="7">
+        <v>44303</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView windowHeight="17940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="220">
   <si>
     <t>题号</t>
   </si>
@@ -645,6 +645,9 @@
     <t>Day 19</t>
   </si>
   <si>
+    <t>17. 电话号码的字母组合</t>
+  </si>
+  <si>
     <t>Day 20</t>
   </si>
   <si>
@@ -834,14 +837,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -883,8 +878,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,15 +901,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,7 +916,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,6 +931,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -943,18 +953,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -981,11 +983,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -999,21 +1001,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,7 +1086,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,55 +1182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,73 +1224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,13 +1260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,11 +1310,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1331,13 +1340,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,21 +1366,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1390,17 +1388,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1412,10 +1415,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1424,137 +1427,137 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,22 +1585,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1633,46 +1633,46 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1979,487 +1979,487 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="29" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.06666666666667" style="29" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="29" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="28" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.06666666666667" style="28" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="39"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="33"/>
+      <c r="A4" s="32"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="34">
+      <c r="A5" s="33">
         <v>11</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="19">
+      <c r="D5" s="34"/>
+      <c r="E5" s="18">
         <v>44288</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>44288</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>44289</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="29" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>283</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="19">
+      <c r="D6" s="34"/>
+      <c r="E6" s="18">
         <v>44288</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>44288</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>44289</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>70</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="19">
+      <c r="D7" s="34"/>
+      <c r="E7" s="18">
         <v>44288</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>44288</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>44288</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>15</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="36">
+      <c r="A9" s="35">
         <v>206</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>24</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="19">
+      <c r="D10" s="34"/>
+      <c r="E10" s="18">
         <v>44289</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>44289</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>44290</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="36">
+      <c r="A11" s="35">
         <v>141</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>142</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="37">
+      <c r="A13" s="36">
         <v>25</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="36">
+      <c r="A14" s="35">
         <v>20</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="36">
+      <c r="A15" s="35">
         <v>155</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="37">
+      <c r="A16" s="36">
         <v>84</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <v>239</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="19">
+      <c r="D17" s="34"/>
+      <c r="E17" s="18">
         <v>44294</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>44294</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <v>26</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="36">
+      <c r="A23" s="35">
         <v>189</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="36">
+      <c r="A24" s="35">
         <v>21</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="19">
+      <c r="D24" s="34"/>
+      <c r="E24" s="18">
         <v>44290</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>44290</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>44291</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="36">
+      <c r="A25" s="35">
         <v>88</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="36">
+      <c r="A26" s="35">
         <v>1</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="19">
+      <c r="D26" s="34"/>
+      <c r="E26" s="18">
         <v>44288</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <v>44288</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <v>44289</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="36">
+      <c r="A27" s="35">
         <v>66</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="19">
+      <c r="D27" s="34"/>
+      <c r="E27" s="18">
         <v>44288</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>44288</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <v>44288</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="34">
+      <c r="A28" s="33">
         <v>641</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="19">
+      <c r="D28" s="34"/>
+      <c r="E28" s="18">
         <v>44292</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>44292</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="37">
+      <c r="A29" s="36">
         <v>42</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2521,154 +2521,154 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>242</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19">
+      <c r="D5" s="17"/>
+      <c r="E5" s="18">
         <v>44291</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>44291</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>44292</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>49</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19">
+      <c r="D7" s="17"/>
+      <c r="E7" s="18">
         <v>44291</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>44291</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>44292</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>94</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19">
+      <c r="D8" s="17"/>
+      <c r="E8" s="18">
         <v>44294</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>44294</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="17"/>
       <c r="K8" t="s">
         <v>64</v>
       </c>
@@ -2677,217 +2677,217 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>144</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
         <v>44294</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>44294</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>590</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19">
+      <c r="D10" s="17"/>
+      <c r="E10" s="18">
         <v>44295</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>44295</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>589</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19">
+      <c r="D11" s="17"/>
+      <c r="E11" s="18">
         <v>44295</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>44295</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>429</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19">
+      <c r="D12" s="17"/>
+      <c r="E12" s="18">
         <v>44297</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>44297</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="18"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="17"/>
       <c r="M12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>239</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="19">
+      <c r="D14" s="20"/>
+      <c r="E14" s="18">
         <v>44294</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>44294</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="27"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="27"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18">
         <v>44297</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>44297</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>347</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18">
         <v>44297</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>44297</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2922,7 +2922,7 @@
   <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C19" sqref="C31 C19"/>
     </sheetView>
   </sheetViews>
@@ -2937,461 +2937,461 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>70</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19">
+      <c r="D5" s="17"/>
+      <c r="E5" s="18">
         <v>44299</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>44299</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>22</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19">
+      <c r="D6" s="20"/>
+      <c r="E6" s="18">
         <v>44300</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>44300</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>226</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="19">
+      <c r="D7" s="21"/>
+      <c r="E7" s="18">
         <v>44299</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>44299</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>98</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="19">
+      <c r="D8" s="21"/>
+      <c r="E8" s="18">
         <v>44300</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>44300</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>104</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="19">
+      <c r="D9" s="21"/>
+      <c r="E9" s="18">
         <v>44298</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>44298</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>111</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="19">
+      <c r="D10" s="21"/>
+      <c r="E10" s="18">
         <v>44299</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>44299</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>297</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>50</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="19">
+      <c r="D12" s="21"/>
+      <c r="E12" s="18">
         <v>44302</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>44302</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>78</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="19">
+      <c r="D13" s="21"/>
+      <c r="E13" s="18">
         <v>44303</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>44303</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>169</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19">
+      <c r="D14" s="17"/>
+      <c r="E14" s="18">
         <v>44299</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>44299</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>17</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="19">
+      <c r="D15" s="20"/>
+      <c r="E15" s="18">
         <v>44303</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>44303</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>51</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="19">
+      <c r="D16" s="20"/>
+      <c r="E16" s="18">
         <v>44299</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>44299</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>236</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="19">
+      <c r="D21" s="21"/>
+      <c r="E21" s="18">
         <v>44303</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>44303</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>105</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="19">
+      <c r="D22" s="21"/>
+      <c r="E22" s="18">
         <v>44303</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>44303</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>77</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="19">
+      <c r="D23" s="21"/>
+      <c r="E23" s="18">
         <v>44303</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>44303</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>46</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>47</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3430,8 +3430,8 @@
   <sheetPr/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C25" sqref="E19 F19 C25"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3684,7 +3684,7 @@
       <c r="B10" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D10" s="8"/>
@@ -3797,7 +3797,9 @@
       <c r="G14" s="7">
         <v>44299</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="7">
+        <v>44304</v>
+      </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9">
@@ -3909,7 +3911,9 @@
       <c r="F19" s="7">
         <v>44303</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="7">
+        <v>44304</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
@@ -3917,18 +3921,26 @@
       <c r="A20" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="E20" s="7">
+        <v>44304</v>
+      </c>
+      <c r="F20" s="7">
+        <v>44304</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3941,7 +3953,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3954,7 +3966,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3967,7 +3979,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3980,7 +3992,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3993,7 +4005,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4006,7 +4018,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4019,7 +4031,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4032,7 +4044,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4045,7 +4057,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4058,7 +4070,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4071,7 +4083,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4084,7 +4096,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4097,7 +4109,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4110,7 +4122,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4123,7 +4135,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4136,7 +4148,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4149,7 +4161,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4162,7 +4174,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4175,7 +4187,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4188,7 +4200,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4201,7 +4213,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4214,7 +4226,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4227,7 +4239,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4240,7 +4252,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4253,7 +4265,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4266,7 +4278,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4279,7 +4291,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4292,7 +4304,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4305,7 +4317,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4318,7 +4330,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4331,7 +4343,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4344,7 +4356,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4357,7 +4369,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4370,7 +4382,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4383,7 +4395,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4396,7 +4408,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4409,7 +4421,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4422,7 +4434,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4435,7 +4447,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4448,7 +4460,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4461,7 +4473,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4474,7 +4486,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4487,7 +4499,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4500,7 +4512,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4513,7 +4525,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4526,7 +4538,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4539,7 +4551,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4552,7 +4564,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4565,7 +4577,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4578,9 +4590,9 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B71" s="10"/>
+        <v>219</v>
+      </c>
+      <c r="B71" s="9"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -4617,6 +4629,7 @@
     <hyperlink ref="B17" r:id="rId16" display="剑指 Offer 05. 替换空格" tooltip="https://leetcode-cn.com/problems/ti-huan-kong-ge-lcof/"/>
     <hyperlink ref="B18" r:id="rId17" display="剑指 Offer 06. 从尾到头打印链表" tooltip="https://leetcode-cn.com/problems/cong-wei-dao-tou-da-yin-lian-biao-lcof/"/>
     <hyperlink ref="B19" r:id="rId18" display="236. 二叉树的最近公共祖先" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
+    <hyperlink ref="B20" r:id="rId19" display="17. 电话号码的字母组合" tooltip="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="3"/>
+    <workbookView windowHeight="17940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="5" r:id="rId2"/>
     <sheet name="Week3" sheetId="6" r:id="rId3"/>
-    <sheet name="LeetCode Monster" sheetId="4" r:id="rId4"/>
+    <sheet name="Week4" sheetId="7" r:id="rId4"/>
+    <sheet name="LeetCode Monster" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="259">
   <si>
     <t>题号</t>
   </si>
@@ -492,6 +493,122 @@
     <t>https://leetcode-cn.com/problems/permutations-ii/</t>
   </si>
   <si>
+    <t>第4周</t>
+  </si>
+  <si>
+    <t>第9课：深度优先搜索和广度优先搜索
+第10课：贪心算法
+第11课：二分查找</t>
+  </si>
+  <si>
+    <t>二叉树的层次遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal/#/description</t>
+  </si>
+  <si>
+    <t>最小基因变化</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minimum-genetic-mutation/#/description</t>
+  </si>
+  <si>
+    <t>在每个树行中找最大值</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/#/description</t>
+  </si>
+  <si>
+    <t>x的平方根</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sqrtx/</t>
+  </si>
+  <si>
+    <t>有效的完全平方数</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-perfect-square/</t>
+  </si>
+  <si>
+    <t>柠檬水找零</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lemonade-change/description/</t>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/description/</t>
+  </si>
+  <si>
+    <t>分发饼干</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/assign-cookies/description/</t>
+  </si>
+  <si>
+    <t>模拟行走机器人</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/walking-robot-simulation/description/</t>
+  </si>
+  <si>
+    <t>单词接龙</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/word-ladder/description/</t>
+  </si>
+  <si>
+    <t>岛屿数量</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-islands/</t>
+  </si>
+  <si>
+    <t>扫雷游戏</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/minesweeper/description/</t>
+  </si>
+  <si>
+    <t>跳跃游戏</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game/</t>
+  </si>
+  <si>
+    <t>搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>搜索二维矩阵</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/search-a-2d-matrix/</t>
+  </si>
+  <si>
+    <t>寻找旋转排序数组中的最小值</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>单词接龙II</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/word-ladder-ii/description/</t>
+  </si>
+  <si>
+    <t>跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game-ii/</t>
+  </si>
+  <si>
     <t>Day 1</t>
   </si>
   <si>
@@ -649,6 +766,9 @@
   </si>
   <si>
     <t>Day 20</t>
+  </si>
+  <si>
+    <t>77. 组合</t>
   </si>
   <si>
     <t>Day 21</t>
@@ -807,9 +927,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -878,6 +998,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -900,23 +1027,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,26 +1050,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -992,6 +1090,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1009,7 +1115,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,6 +1135,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1029,7 +1149,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,19 +1188,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFD900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1C7231"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA3E043"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD900"/>
+        <fgColor rgb="FFFE2C23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFE2C23"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,25 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,31 +1254,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,13 +1284,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,37 +1368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,37 +1392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,17 +1466,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1388,13 +1510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1412,152 +1538,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1612,10 +1738,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1624,13 +1786,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1657,16 +1819,16 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1979,487 +2141,487 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="28" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.06666666666667" style="28" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="28" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="40" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="40" customWidth="1"/>
+    <col min="8" max="8" width="9.06666666666667" style="40" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="38"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="32"/>
+      <c r="A4" s="44"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="33">
+      <c r="A5" s="45">
         <v>11</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="18">
+      <c r="D5" s="46"/>
+      <c r="E5" s="30">
         <v>44288</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="30">
         <v>44288</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="30">
         <v>44289</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="28" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="35">
+      <c r="A6" s="47">
         <v>283</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="18">
+      <c r="D6" s="46"/>
+      <c r="E6" s="30">
         <v>44288</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="30">
         <v>44288</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="30">
         <v>44289</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="35">
+      <c r="A7" s="47">
         <v>70</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="18">
+      <c r="D7" s="46"/>
+      <c r="E7" s="30">
         <v>44288</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="30">
         <v>44288</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="30">
         <v>44288</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="33">
+      <c r="A8" s="45">
         <v>15</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="35">
+      <c r="A9" s="47">
         <v>206</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="33">
+      <c r="A10" s="45">
         <v>24</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="18">
+      <c r="D10" s="46"/>
+      <c r="E10" s="30">
         <v>44289</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="30">
         <v>44289</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="30">
         <v>44290</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="35">
+      <c r="A11" s="47">
         <v>141</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="33">
+      <c r="A12" s="45">
         <v>142</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="36">
+      <c r="A13" s="48">
         <v>25</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="35">
+      <c r="A14" s="47">
         <v>20</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="35">
+      <c r="A15" s="47">
         <v>155</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="36">
+      <c r="A16" s="48">
         <v>84</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="36">
+      <c r="A17" s="48">
         <v>239</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="18">
+      <c r="D17" s="46"/>
+      <c r="E17" s="30">
         <v>44294</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="30">
         <v>44294</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="44"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="35">
+      <c r="A22" s="47">
         <v>26</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="35">
+      <c r="A23" s="47">
         <v>189</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="35">
+      <c r="A24" s="47">
         <v>21</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="18">
+      <c r="D24" s="46"/>
+      <c r="E24" s="30">
         <v>44290</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="30">
         <v>44290</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="30">
         <v>44291</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="35">
+      <c r="A25" s="47">
         <v>88</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="35">
+      <c r="A26" s="47">
         <v>1</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="18">
+      <c r="D26" s="46"/>
+      <c r="E26" s="30">
         <v>44288</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="30">
         <v>44288</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="30">
         <v>44289</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="35">
+      <c r="A27" s="47">
         <v>66</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="18">
+      <c r="D27" s="46"/>
+      <c r="E27" s="30">
         <v>44288</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="30">
         <v>44288</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="30">
         <v>44288</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="33">
+      <c r="A28" s="45">
         <v>641</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="18">
+      <c r="D28" s="46"/>
+      <c r="E28" s="30">
         <v>44292</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="30">
         <v>44292</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="36">
+      <c r="A29" s="48">
         <v>42</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2521,154 +2683,154 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15">
+      <c r="A5" s="27">
         <v>242</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18">
+      <c r="D5" s="29"/>
+      <c r="E5" s="30">
         <v>44291</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="30">
         <v>44291</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="30">
         <v>44292</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19">
+      <c r="A6" s="31">
         <v>49</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="17"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="15">
+      <c r="A7" s="27">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18">
+      <c r="D7" s="29"/>
+      <c r="E7" s="30">
         <v>44291</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="30">
         <v>44291</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="30">
         <v>44292</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="19">
+      <c r="A8" s="31">
         <v>94</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18">
+      <c r="D8" s="29"/>
+      <c r="E8" s="30">
         <v>44294</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="30">
         <v>44294</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="29"/>
       <c r="K8" t="s">
         <v>64</v>
       </c>
@@ -2677,217 +2839,217 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19">
+      <c r="A9" s="31">
         <v>144</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18">
+      <c r="D9" s="29"/>
+      <c r="E9" s="30">
         <v>44294</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="30">
         <v>44294</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="15">
+      <c r="A10" s="27">
         <v>590</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18">
+      <c r="D10" s="29"/>
+      <c r="E10" s="30">
         <v>44295</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="30">
         <v>44295</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="15">
+      <c r="A11" s="27">
         <v>589</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>44295</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="30">
         <v>44295</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="19">
+      <c r="A12" s="31">
         <v>429</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18">
+      <c r="D12" s="29"/>
+      <c r="E12" s="30">
         <v>44297</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="30">
         <v>44297</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="17"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="29"/>
       <c r="M12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="23">
+      <c r="A14" s="35">
         <v>239</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18">
+      <c r="D14" s="32"/>
+      <c r="E14" s="30">
         <v>44294</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="30">
         <v>44294</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="26"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="26"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18">
+      <c r="D19" s="29"/>
+      <c r="E19" s="30">
         <v>44297</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="30">
         <v>44297</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="17"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="19">
+      <c r="A20" s="31">
         <v>347</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18">
+      <c r="D20" s="29"/>
+      <c r="E20" s="30">
         <v>44297</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="30">
         <v>44297</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2923,7 +3085,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C19" sqref="C31 C19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2937,461 +3099,465 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15">
+      <c r="A5" s="27">
         <v>70</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18">
+      <c r="D5" s="29"/>
+      <c r="E5" s="30">
         <v>44299</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="30">
         <v>44299</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19">
+      <c r="A6" s="31">
         <v>22</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18">
+      <c r="D6" s="32"/>
+      <c r="E6" s="30">
         <v>44300</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="30">
         <v>44300</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="15">
+      <c r="A7" s="27">
         <v>226</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="18">
+      <c r="D7" s="33"/>
+      <c r="E7" s="30">
         <v>44299</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="30">
         <v>44299</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="19">
+      <c r="A8" s="31">
         <v>98</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="18">
+      <c r="D8" s="33"/>
+      <c r="E8" s="30">
         <v>44300</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="30">
         <v>44300</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="15">
+      <c r="A9" s="27">
         <v>104</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="18">
+      <c r="D9" s="33"/>
+      <c r="E9" s="30">
         <v>44298</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="30">
         <v>44298</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="15">
+      <c r="A10" s="27">
         <v>111</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="18">
+      <c r="D10" s="33"/>
+      <c r="E10" s="30">
         <v>44299</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="30">
         <v>44299</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="22">
+      <c r="A11" s="34">
         <v>297</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="19">
+      <c r="A12" s="31">
         <v>50</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="18">
+      <c r="D12" s="33"/>
+      <c r="E12" s="30">
         <v>44302</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="30">
         <v>44302</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="19">
+      <c r="A13" s="31">
         <v>78</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="18">
+      <c r="D13" s="33"/>
+      <c r="E13" s="30">
         <v>44303</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="30">
         <v>44303</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="15">
+      <c r="A14" s="27">
         <v>169</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18">
+      <c r="D14" s="29"/>
+      <c r="E14" s="30">
         <v>44299</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="30">
         <v>44299</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="19">
+      <c r="A15" s="31">
         <v>17</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="18">
+      <c r="D15" s="32"/>
+      <c r="E15" s="30">
         <v>44303</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="30">
         <v>44303</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="23">
+      <c r="A16" s="35">
         <v>51</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="18">
+      <c r="D16" s="32"/>
+      <c r="E16" s="30">
         <v>44299</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="30">
         <v>44299</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="19">
+      <c r="A21" s="31">
         <v>236</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="18">
+      <c r="D21" s="33"/>
+      <c r="E21" s="30">
         <v>44303</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="30">
         <v>44303</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="19">
+      <c r="A22" s="31">
         <v>105</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="18">
+      <c r="D22" s="33"/>
+      <c r="E22" s="30">
         <v>44303</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="30">
         <v>44303</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="19">
+      <c r="A23" s="31">
         <v>77</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="18">
+      <c r="D23" s="33"/>
+      <c r="E23" s="30">
         <v>44303</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="30">
         <v>44303</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="19">
+      <c r="A24" s="31">
         <v>46</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="7">
+        <v>44305</v>
+      </c>
+      <c r="F24" s="7">
+        <v>44305</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="19">
+      <c r="A25" s="31">
         <v>47</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3428,10 +3594,495 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="91.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:9">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="59" customHeight="1" spans="1:9">
+      <c r="A2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15">
+        <v>102</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15">
+        <v>433</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15">
+        <v>22</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15">
+        <v>515</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="20">
+        <v>69</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="20">
+        <v>367</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="20">
+        <v>860</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="20">
+        <v>122</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="20">
+        <v>455</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="20">
+        <v>874</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="15">
+        <v>127</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="15">
+        <v>200</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="15">
+        <v>529</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="15">
+        <v>55</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="15">
+        <v>33</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="15">
+        <v>74</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="15">
+        <v>153</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="21">
+        <v>126</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="21">
+        <v>45</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal/#/description"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/#/description"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://leetcode-cn.com/problems/generate-parentheses/#/description"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/#/description"/>
+    <hyperlink ref="C9" r:id="rId5" display="https://leetcode-cn.com/problems/sqrtx/" tooltip="https://leetcode-cn.com/problems/sqrtx/"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://leetcode-cn.com/problems/valid-perfect-square/" tooltip="https://leetcode-cn.com/problems/valid-perfect-square/"/>
+    <hyperlink ref="C15" r:id="rId7" display="https://leetcode-cn.com/problems/lemonade-change/description/" tooltip="https://leetcode-cn.com/problems/lemonade-change/description/"/>
+    <hyperlink ref="C16" r:id="rId8" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/description/" tooltip="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/description/"/>
+    <hyperlink ref="C17" r:id="rId9" display="https://leetcode-cn.com/problems/assign-cookies/description/" tooltip="https://leetcode-cn.com/problems/assign-cookies/description/"/>
+    <hyperlink ref="C18" r:id="rId10" display="https://leetcode-cn.com/problems/walking-robot-simulation/description/" tooltip="https://leetcode-cn.com/problems/walking-robot-simulation/description/"/>
+    <hyperlink ref="C19" r:id="rId11" display="https://leetcode-cn.com/problems/word-ladder/description/" tooltip="https://leetcode-cn.com/problems/word-ladder/description/"/>
+    <hyperlink ref="C20" r:id="rId12" display="https://leetcode-cn.com/problems/number-of-islands/" tooltip="https://leetcode-cn.com/problems/number-of-islands/"/>
+    <hyperlink ref="C21" r:id="rId13" display="https://leetcode-cn.com/problems/minesweeper/description/" tooltip="https://leetcode-cn.com/problems/minesweeper/description/"/>
+    <hyperlink ref="C22" r:id="rId14" display="https://leetcode-cn.com/problems/jump-game/" tooltip="https://leetcode-cn.com/problems/jump-game/"/>
+    <hyperlink ref="C23" r:id="rId15" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/" tooltip="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/"/>
+    <hyperlink ref="C24" r:id="rId16" display="https://leetcode-cn.com/problems/search-a-2d-matrix/" tooltip="https://leetcode-cn.com/problems/search-a-2d-matrix/"/>
+    <hyperlink ref="C25" r:id="rId17" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/" tooltip="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/"/>
+    <hyperlink ref="C26" r:id="rId18" display="https://leetcode-cn.com/problems/word-ladder-ii/description/" tooltip="https://leetcode-cn.com/problems/word-ladder-ii/description/"/>
+    <hyperlink ref="C27" r:id="rId19" display="https://leetcode-cn.com/problems/jump-game-ii/" tooltip="https://leetcode-cn.com/problems/jump-game-ii/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3473,16 +4124,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="E2" s="7">
         <v>44286</v>
@@ -3500,16 +4151,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E3" s="7">
         <v>44287</v>
@@ -3527,16 +4178,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E4" s="7">
         <v>44288</v>
@@ -3554,16 +4205,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="E5" s="7">
         <v>44289</v>
@@ -3581,16 +4232,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="E6" s="7">
         <v>44290</v>
@@ -3608,13 +4259,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7">
@@ -3633,13 +4284,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7">
@@ -3654,13 +4305,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7">
@@ -3679,13 +4330,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7">
@@ -3704,13 +4355,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7">
@@ -3729,13 +4380,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7">
@@ -3754,13 +4405,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7">
@@ -3779,10 +4430,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>92</v>
@@ -3804,10 +4455,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>106</v>
@@ -3822,15 +4473,17 @@
       <c r="G15" s="7">
         <v>44300</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="7">
+        <v>44305</v>
+      </c>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>63</v>
@@ -3850,13 +4503,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7">
@@ -3873,13 +4526,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7">
@@ -3896,10 +4549,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>108</v>
@@ -3919,10 +4572,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>104</v>
@@ -3934,26 +4587,36 @@
       <c r="F20" s="7">
         <v>44304</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="7">
+        <v>44305</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="E21" s="7">
+        <v>44305</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44305</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3966,7 +4629,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3979,7 +4642,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3992,7 +4655,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4005,7 +4668,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4018,7 +4681,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4031,7 +4694,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4044,7 +4707,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4057,7 +4720,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4070,7 +4733,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4083,7 +4746,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4096,7 +4759,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4109,7 +4772,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4122,7 +4785,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4135,7 +4798,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4148,7 +4811,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4161,7 +4824,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4174,7 +4837,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4187,7 +4850,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4200,7 +4863,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4213,7 +4876,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4226,7 +4889,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4239,7 +4902,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4252,7 +4915,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4265,7 +4928,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4278,7 +4941,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4291,7 +4954,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4304,7 +4967,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4317,7 +4980,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4330,7 +4993,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4343,7 +5006,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4356,7 +5019,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4369,7 +5032,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4382,7 +5045,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4395,7 +5058,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4408,7 +5071,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4421,7 +5084,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4434,7 +5097,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4447,7 +5110,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4460,7 +5123,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4473,7 +5136,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4486,7 +5149,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4499,7 +5162,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4512,7 +5175,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4525,7 +5188,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4538,7 +5201,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4551,7 +5214,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4564,7 +5227,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4577,7 +5240,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4590,7 +5253,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
@@ -4630,6 +5293,7 @@
     <hyperlink ref="B18" r:id="rId17" display="剑指 Offer 06. 从尾到头打印链表" tooltip="https://leetcode-cn.com/problems/cong-wei-dao-tou-da-yin-lian-biao-lcof/"/>
     <hyperlink ref="B19" r:id="rId18" display="236. 二叉树的最近公共祖先" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
     <hyperlink ref="B20" r:id="rId19" display="17. 电话号码的字母组合" tooltip="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="B21" r:id="rId20" display="77. 组合" tooltip="https://leetcode-cn.com/problems/combinations/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="4"/>
+    <workbookView windowHeight="17940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="265">
   <si>
     <t>题号</t>
   </si>
@@ -504,19 +504,22 @@
     <t>二叉树的层次遍历</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal/#/description</t>
+    <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal/</t>
   </si>
   <si>
     <t>最小基因变化</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/minimum-genetic-mutation/#/description</t>
+    <t>https://leetcode-cn.com/problems/minimum-genetic-mutation/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/generate-parentheses/</t>
   </si>
   <si>
     <t>在每个树行中找最大值</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/#/description</t>
+    <t>https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/</t>
   </si>
   <si>
     <t>x的平方根</t>
@@ -534,31 +537,31 @@
     <t>柠檬水找零</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/lemonade-change/description/</t>
+    <t>https://leetcode-cn.com/problems/lemonade-change/</t>
   </si>
   <si>
     <t>买卖股票的最佳时机 II</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/description/</t>
+    <t>https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii</t>
   </si>
   <si>
     <t>分发饼干</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/assign-cookies/description/</t>
+    <t>https://leetcode-cn.com/problems/assign-cookies/</t>
   </si>
   <si>
     <t>模拟行走机器人</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/walking-robot-simulation/description/</t>
+    <t>https://leetcode-cn.com/problems/walking-robot-simulation/</t>
   </si>
   <si>
     <t>单词接龙</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/word-ladder/description/</t>
+    <t>https://leetcode-cn.com/problems/word-ladder/</t>
   </si>
   <si>
     <t>岛屿数量</t>
@@ -570,7 +573,7 @@
     <t>扫雷游戏</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/minesweeper/description/</t>
+    <t>https://leetcode-cn.com/problems/minesweeper/</t>
   </si>
   <si>
     <t>跳跃游戏</t>
@@ -600,7 +603,7 @@
     <t>单词接龙II</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/word-ladder-ii/description/</t>
+    <t>https://leetcode-cn.com/problems/word-ladder-ii</t>
   </si>
   <si>
     <t>跳跃游戏 II</t>
@@ -774,10 +777,25 @@
     <t>Day 21</t>
   </si>
   <si>
+    <t>面试题 17.09. 第 k 个数</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/get-kth-magic-number-lcci/</t>
+  </si>
+  <si>
     <t>Day 22</t>
   </si>
   <si>
+    <t>22. 括号生成</t>
+  </si>
+  <si>
     <t>Day 23</t>
+  </si>
+  <si>
+    <t>455. 分发饼干</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/assign-cookies</t>
   </si>
   <si>
     <t>Day 24</t>
@@ -927,9 +945,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -999,7 +1017,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,7 +1053,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,16 +1068,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1055,14 +1087,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1115,6 +1139,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1128,20 +1160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1149,7 +1167,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,12 +1212,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1C7231"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA3E043"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1212,13 +1224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,7 +1260,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,13 +1290,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,85 +1332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,13 +1356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,7 +1380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,7 +1404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,11 +1480,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,9 +1522,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1524,166 +1545,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1738,61 +1750,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1825,10 +1801,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2141,487 +2117,487 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="40" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="40" customWidth="1"/>
-    <col min="8" max="8" width="9.06666666666667" style="40" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="40" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="28" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.06666666666667" style="28" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="49"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="50"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="32"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="45">
+      <c r="A5" s="33">
         <v>11</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="30">
+      <c r="D5" s="34"/>
+      <c r="E5" s="21">
         <v>44288</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="21">
         <v>44288</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="21">
         <v>44289</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="40" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="47">
+      <c r="A6" s="35">
         <v>283</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="30">
+      <c r="D6" s="34"/>
+      <c r="E6" s="21">
         <v>44288</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="21">
         <v>44288</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="21">
         <v>44289</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="47">
+      <c r="A7" s="35">
         <v>70</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="30">
+      <c r="D7" s="34"/>
+      <c r="E7" s="21">
         <v>44288</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="21">
         <v>44288</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="21">
         <v>44288</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="45">
+      <c r="A8" s="33">
         <v>15</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="47">
+      <c r="A9" s="35">
         <v>206</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="45">
+      <c r="A10" s="33">
         <v>24</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="30">
+      <c r="D10" s="34"/>
+      <c r="E10" s="21">
         <v>44289</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="21">
         <v>44289</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="21">
         <v>44290</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="47">
+      <c r="A11" s="35">
         <v>141</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="45">
+      <c r="A12" s="33">
         <v>142</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="48">
+      <c r="A13" s="36">
         <v>25</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="47">
+      <c r="A14" s="35">
         <v>20</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="47">
+      <c r="A15" s="35">
         <v>155</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="48">
+      <c r="A16" s="36">
         <v>84</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="48">
+      <c r="A17" s="36">
         <v>239</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="30">
+      <c r="D17" s="34"/>
+      <c r="E17" s="21">
         <v>44294</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="21">
         <v>44294</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="32"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="47">
+      <c r="A22" s="35">
         <v>26</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="47">
+      <c r="A23" s="35">
         <v>189</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="47">
+      <c r="A24" s="35">
         <v>21</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="30">
+      <c r="D24" s="34"/>
+      <c r="E24" s="21">
         <v>44290</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="21">
         <v>44290</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="21">
         <v>44291</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="47">
+      <c r="A25" s="35">
         <v>88</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="47">
+      <c r="A26" s="35">
         <v>1</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="30">
+      <c r="D26" s="34"/>
+      <c r="E26" s="21">
         <v>44288</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="21">
         <v>44288</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="21">
         <v>44289</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="47">
+      <c r="A27" s="35">
         <v>66</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="30">
+      <c r="D27" s="34"/>
+      <c r="E27" s="21">
         <v>44288</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="21">
         <v>44288</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="21">
         <v>44288</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="45">
+      <c r="A28" s="33">
         <v>641</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="30">
+      <c r="D28" s="34"/>
+      <c r="E28" s="21">
         <v>44292</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="21">
         <v>44292</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="48">
+      <c r="A29" s="36">
         <v>42</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2683,154 +2659,154 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:9">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="27">
+      <c r="A5" s="19">
         <v>242</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30">
+      <c r="D5" s="17"/>
+      <c r="E5" s="21">
         <v>44291</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="21">
         <v>44291</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="21">
         <v>44292</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="29"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="31">
+      <c r="A6" s="15">
         <v>49</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="29"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="27">
+      <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30">
+      <c r="D7" s="17"/>
+      <c r="E7" s="21">
         <v>44291</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="21">
         <v>44291</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="21">
         <v>44292</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="29"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="31">
+      <c r="A8" s="15">
         <v>94</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30">
+      <c r="D8" s="17"/>
+      <c r="E8" s="21">
         <v>44294</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="21">
         <v>44294</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="29"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
       <c r="K8" t="s">
         <v>64</v>
       </c>
@@ -2839,217 +2815,217 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="31">
+      <c r="A9" s="15">
         <v>144</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30">
+      <c r="D9" s="17"/>
+      <c r="E9" s="21">
         <v>44294</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="21">
         <v>44294</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="29"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="27">
+      <c r="A10" s="19">
         <v>590</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30">
+      <c r="D10" s="17"/>
+      <c r="E10" s="21">
         <v>44295</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="21">
         <v>44295</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="29"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="27">
+      <c r="A11" s="19">
         <v>589</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30">
+      <c r="D11" s="17"/>
+      <c r="E11" s="21">
         <v>44295</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="21">
         <v>44295</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="29"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="31">
+      <c r="A12" s="15">
         <v>429</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30">
+      <c r="D12" s="17"/>
+      <c r="E12" s="21">
         <v>44297</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="21">
         <v>44297</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="29"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
       <c r="M12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="35">
+      <c r="A14" s="20">
         <v>239</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="30">
+      <c r="D14" s="18"/>
+      <c r="E14" s="21">
         <v>44294</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="21">
         <v>44294</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="38"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="38"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30">
+      <c r="D19" s="17"/>
+      <c r="E19" s="21">
         <v>44297</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="21">
         <v>44297</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="29"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="31">
+      <c r="A20" s="15">
         <v>347</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30">
+      <c r="D20" s="17"/>
+      <c r="E20" s="21">
         <v>44297</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="21">
         <v>44297</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3099,465 +3075,465 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="27">
+      <c r="A5" s="19">
         <v>70</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30">
+      <c r="D5" s="17"/>
+      <c r="E5" s="21">
         <v>44299</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="21">
         <v>44299</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="31">
+      <c r="A6" s="15">
         <v>22</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="30">
+      <c r="D6" s="18"/>
+      <c r="E6" s="21">
         <v>44300</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="21">
         <v>44300</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="27">
+      <c r="A7" s="19">
         <v>226</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="30">
+      <c r="D7" s="22"/>
+      <c r="E7" s="21">
         <v>44299</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="21">
         <v>44299</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="31">
+      <c r="A8" s="15">
         <v>98</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="30">
+      <c r="D8" s="22"/>
+      <c r="E8" s="21">
         <v>44300</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="21">
         <v>44300</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="27">
+      <c r="A9" s="19">
         <v>104</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="30">
+      <c r="D9" s="22"/>
+      <c r="E9" s="21">
         <v>44298</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="21">
         <v>44298</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="27">
+      <c r="A10" s="19">
         <v>111</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="30">
+      <c r="D10" s="22"/>
+      <c r="E10" s="21">
         <v>44299</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="21">
         <v>44299</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="34">
+      <c r="A11" s="23">
         <v>297</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="31">
+      <c r="A12" s="15">
         <v>50</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="30">
+      <c r="D12" s="22"/>
+      <c r="E12" s="21">
         <v>44302</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="21">
         <v>44302</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="31">
+      <c r="A13" s="15">
         <v>78</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="30">
+      <c r="D13" s="22"/>
+      <c r="E13" s="21">
         <v>44303</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="21">
         <v>44303</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="27">
+      <c r="A14" s="19">
         <v>169</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30">
+      <c r="D14" s="17"/>
+      <c r="E14" s="21">
         <v>44299</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="21">
         <v>44299</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="31">
+      <c r="A15" s="15">
         <v>17</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="30">
+      <c r="D15" s="18"/>
+      <c r="E15" s="21">
         <v>44303</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="21">
         <v>44303</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="35">
+      <c r="A16" s="20">
         <v>51</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="30">
+      <c r="D16" s="18"/>
+      <c r="E16" s="21">
         <v>44299</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="21">
         <v>44299</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="31">
+      <c r="A21" s="15">
         <v>236</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="30">
+      <c r="D21" s="22"/>
+      <c r="E21" s="21">
         <v>44303</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="21">
         <v>44303</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="31">
+      <c r="A22" s="15">
         <v>105</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="30">
+      <c r="D22" s="22"/>
+      <c r="E22" s="21">
         <v>44303</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="21">
         <v>44303</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="31">
+      <c r="A23" s="15">
         <v>77</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="30">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
         <v>44303</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="21">
         <v>44303</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="31">
+      <c r="A24" s="15">
         <v>46</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="7">
         <v>44305</v>
       </c>
       <c r="F24" s="7">
         <v>44305</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="31">
+      <c r="A25" s="15">
         <v>47</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3596,8 +3572,8 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3662,7 +3638,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="14" customHeight="1" spans="1:9">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -3684,10 +3660,14 @@
         <v>120</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="7">
+        <v>44307</v>
+      </c>
+      <c r="F5" s="7">
+        <v>44307</v>
+      </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9">
@@ -3700,12 +3680,12 @@
       <c r="C6" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="15">
@@ -3715,65 +3695,69 @@
         <v>85</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+        <v>123</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="7">
+        <v>44307</v>
+      </c>
+      <c r="F7" s="7">
+        <v>44307</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="15">
         <v>515</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>69</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>367</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="14"/>
@@ -3822,225 +3806,225 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>860</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+        <v>131</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>122</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+        <v>133</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>455</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>874</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15">
         <v>127</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="15">
         <v>200</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+        <v>141</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="15">
         <v>529</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+        <v>143</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="15">
         <v>55</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+        <v>145</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="15">
         <v>33</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="15">
         <v>74</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="15">
         <v>153</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>126</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+        <v>153</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>45</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+        <v>155</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4051,24 +4035,24 @@
     <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal/#/description"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/#/description"/>
-    <hyperlink ref="C7" r:id="rId3" display="https://leetcode-cn.com/problems/generate-parentheses/#/description"/>
-    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/#/description"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal/" tooltip="https://leetcode-cn.com/problems/binary-tree-level-order-traversal/"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://leetcode-cn.com/problems/minimum-genetic-mutation/" tooltip="https://leetcode-cn.com/problems/minimum-genetic-mutation/"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://leetcode-cn.com/problems/generate-parentheses/" tooltip="https://leetcode-cn.com/problems/generate-parentheses/"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/" tooltip="https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/"/>
     <hyperlink ref="C9" r:id="rId5" display="https://leetcode-cn.com/problems/sqrtx/" tooltip="https://leetcode-cn.com/problems/sqrtx/"/>
     <hyperlink ref="C10" r:id="rId6" display="https://leetcode-cn.com/problems/valid-perfect-square/" tooltip="https://leetcode-cn.com/problems/valid-perfect-square/"/>
-    <hyperlink ref="C15" r:id="rId7" display="https://leetcode-cn.com/problems/lemonade-change/description/" tooltip="https://leetcode-cn.com/problems/lemonade-change/description/"/>
-    <hyperlink ref="C16" r:id="rId8" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/description/" tooltip="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/description/"/>
-    <hyperlink ref="C17" r:id="rId9" display="https://leetcode-cn.com/problems/assign-cookies/description/" tooltip="https://leetcode-cn.com/problems/assign-cookies/description/"/>
-    <hyperlink ref="C18" r:id="rId10" display="https://leetcode-cn.com/problems/walking-robot-simulation/description/" tooltip="https://leetcode-cn.com/problems/walking-robot-simulation/description/"/>
-    <hyperlink ref="C19" r:id="rId11" display="https://leetcode-cn.com/problems/word-ladder/description/" tooltip="https://leetcode-cn.com/problems/word-ladder/description/"/>
+    <hyperlink ref="C15" r:id="rId7" display="https://leetcode-cn.com/problems/lemonade-change/" tooltip="https://leetcode-cn.com/problems/lemonade-change/description/"/>
+    <hyperlink ref="C16" r:id="rId8" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii" tooltip="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii"/>
+    <hyperlink ref="C17" r:id="rId9" display="https://leetcode-cn.com/problems/assign-cookies/" tooltip="https://leetcode-cn.com/problems/assign-cookies/description/"/>
+    <hyperlink ref="C18" r:id="rId10" display="https://leetcode-cn.com/problems/walking-robot-simulation/" tooltip="https://leetcode-cn.com/problems/walking-robot-simulation/description/"/>
+    <hyperlink ref="C19" r:id="rId11" display="https://leetcode-cn.com/problems/word-ladder/" tooltip="https://leetcode-cn.com/problems/word-ladder/description/"/>
     <hyperlink ref="C20" r:id="rId12" display="https://leetcode-cn.com/problems/number-of-islands/" tooltip="https://leetcode-cn.com/problems/number-of-islands/"/>
-    <hyperlink ref="C21" r:id="rId13" display="https://leetcode-cn.com/problems/minesweeper/description/" tooltip="https://leetcode-cn.com/problems/minesweeper/description/"/>
+    <hyperlink ref="C21" r:id="rId13" display="https://leetcode-cn.com/problems/minesweeper/" tooltip="https://leetcode-cn.com/problems/minesweeper/description/"/>
     <hyperlink ref="C22" r:id="rId14" display="https://leetcode-cn.com/problems/jump-game/" tooltip="https://leetcode-cn.com/problems/jump-game/"/>
     <hyperlink ref="C23" r:id="rId15" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/" tooltip="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/"/>
     <hyperlink ref="C24" r:id="rId16" display="https://leetcode-cn.com/problems/search-a-2d-matrix/" tooltip="https://leetcode-cn.com/problems/search-a-2d-matrix/"/>
     <hyperlink ref="C25" r:id="rId17" display="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/" tooltip="https://leetcode-cn.com/problems/find-minimum-in-rotated-sorted-array/"/>
-    <hyperlink ref="C26" r:id="rId18" display="https://leetcode-cn.com/problems/word-ladder-ii/description/" tooltip="https://leetcode-cn.com/problems/word-ladder-ii/description/"/>
+    <hyperlink ref="C26" r:id="rId18" display="https://leetcode-cn.com/problems/word-ladder-ii" tooltip="https://leetcode-cn.com/problems/word-ladder-ii"/>
     <hyperlink ref="C27" r:id="rId19" display="https://leetcode-cn.com/problems/jump-game-ii/" tooltip="https://leetcode-cn.com/problems/jump-game-ii/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4081,8 +4065,8 @@
   <sheetPr/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4124,16 +4108,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="7">
         <v>44286</v>
@@ -4151,16 +4135,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" s="7">
         <v>44287</v>
@@ -4178,16 +4162,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E4" s="7">
         <v>44288</v>
@@ -4205,16 +4189,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E5" s="7">
         <v>44289</v>
@@ -4232,16 +4216,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E6" s="7">
         <v>44290</v>
@@ -4259,13 +4243,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7">
@@ -4284,13 +4268,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7">
@@ -4305,13 +4289,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7">
@@ -4330,13 +4314,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7">
@@ -4355,13 +4339,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7">
@@ -4380,13 +4364,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7">
@@ -4405,13 +4389,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7">
@@ -4430,10 +4414,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>92</v>
@@ -4455,10 +4439,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>106</v>
@@ -4480,10 +4464,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>63</v>
@@ -4498,18 +4482,20 @@
       <c r="G16" s="7">
         <v>44301</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="7">
+        <v>44306</v>
+      </c>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7">
@@ -4521,18 +4507,20 @@
       <c r="G17" s="7">
         <v>44302</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="7">
+        <v>44307</v>
+      </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7">
@@ -4544,15 +4532,17 @@
       <c r="G18" s="7">
         <v>44303</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="7">
+        <v>44308</v>
+      </c>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>108</v>
@@ -4572,10 +4562,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>104</v>
@@ -4595,10 +4585,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>112</v>
@@ -4610,52 +4600,82 @@
       <c r="F21" s="7">
         <v>44305</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="7">
+        <v>44306</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="E22" s="7">
+        <v>44306</v>
+      </c>
+      <c r="F22" s="7">
+        <v>44306</v>
+      </c>
+      <c r="G22" s="7">
+        <v>44307</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="E23" s="7">
+        <v>44307</v>
+      </c>
+      <c r="F23" s="7">
+        <v>44307</v>
+      </c>
+      <c r="G23" s="7">
+        <v>44308</v>
+      </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="E24" s="7">
+        <v>44308</v>
+      </c>
+      <c r="F24" s="7">
+        <v>44308</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -4668,7 +4688,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4681,7 +4701,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4694,7 +4714,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4707,7 +4727,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4720,7 +4740,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4733,7 +4753,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4746,7 +4766,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4759,7 +4779,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4772,7 +4792,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4785,7 +4805,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4798,7 +4818,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4811,7 +4831,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4824,7 +4844,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4837,7 +4857,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4850,7 +4870,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4863,7 +4883,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4876,7 +4896,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4889,7 +4909,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4902,7 +4922,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4915,7 +4935,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4928,7 +4948,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4941,7 +4961,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4954,7 +4974,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4967,7 +4987,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4980,7 +5000,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4993,7 +5013,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5006,7 +5026,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -5019,7 +5039,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -5032,7 +5052,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -5045,7 +5065,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -5058,7 +5078,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -5071,7 +5091,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -5084,7 +5104,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -5097,7 +5117,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -5110,7 +5130,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -5123,7 +5143,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -5136,7 +5156,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -5149,7 +5169,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -5162,7 +5182,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -5175,7 +5195,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -5188,7 +5208,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -5201,7 +5221,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5214,7 +5234,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -5227,7 +5247,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -5240,7 +5260,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -5253,7 +5273,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
@@ -5294,6 +5314,10 @@
     <hyperlink ref="B19" r:id="rId18" display="236. 二叉树的最近公共祖先" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
     <hyperlink ref="B20" r:id="rId19" display="17. 电话号码的字母组合" tooltip="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
     <hyperlink ref="B21" r:id="rId20" display="77. 组合" tooltip="https://leetcode-cn.com/problems/combinations/"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://leetcode-cn.com/problems/get-kth-magic-number-lcci/"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://leetcode-cn.com/problems/generate-parentheses/" tooltip="https://leetcode-cn.com/problems/generate-parentheses/"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://leetcode-cn.com/problems/assign-cookies"/>
+    <hyperlink ref="B24" r:id="rId24" display="455. 分发饼干" tooltip="https://leetcode-cn.com/problems/assign-cookies/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -944,10 +944,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1017,7 +1017,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,46 +1060,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1087,6 +1079,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1131,7 +1131,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,7 +1139,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1147,7 +1147,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,7 +1224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,7 +1254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,13 +1272,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,145 +1404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,21 +1449,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1480,9 +1465,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,8 +1477,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,11 +1509,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1545,6 +1530,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1553,48 +1553,48 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1604,94 +1604,94 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3573,7 +3573,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3719,8 +3719,12 @@
         <v>125</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="E8" s="7">
+        <v>44308</v>
+      </c>
+      <c r="F8" s="7">
+        <v>44308</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="267">
   <si>
     <t>题号</t>
   </si>
@@ -801,6 +801,12 @@
     <t>Day 24</t>
   </si>
   <si>
+    <t>122. 买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
+  </si>
+  <si>
     <t>Day 25</t>
   </si>
   <si>
@@ -944,10 +950,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1017,14 +1023,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1038,8 +1036,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,20 +1069,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,6 +1085,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,21 +1146,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1154,7 +1160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,7 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,85 +1242,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,25 +1272,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,31 +1344,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,13 +1392,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,22 +1469,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,32 +1532,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,28 +1559,28 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1586,13 +1592,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1604,94 +1607,97 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3573,7 +3579,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3837,8 +3843,12 @@
         <v>133</v>
       </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="7">
+        <v>44309</v>
+      </c>
+      <c r="F16" s="7">
+        <v>44309</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -3854,8 +3864,12 @@
         <v>135</v>
       </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="7">
+        <v>44308</v>
+      </c>
+      <c r="F17" s="7">
+        <v>44308</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -4070,7 +4084,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4561,7 +4575,9 @@
       <c r="G19" s="7">
         <v>44304</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="7">
+        <v>44309</v>
+      </c>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
@@ -4673,7 +4689,9 @@
       <c r="F24" s="7">
         <v>44308</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="7">
+        <v>44309</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
@@ -4681,18 +4699,26 @@
       <c r="A25" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="E25" s="7">
+        <v>44309</v>
+      </c>
+      <c r="F25" s="7">
+        <v>44309</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -4705,7 +4731,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4718,7 +4744,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4731,7 +4757,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4744,7 +4770,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4757,7 +4783,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4770,7 +4796,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4783,7 +4809,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4796,7 +4822,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4809,7 +4835,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4822,7 +4848,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4835,7 +4861,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4848,7 +4874,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4861,7 +4887,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4874,7 +4900,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4887,7 +4913,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4900,7 +4926,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4913,7 +4939,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4926,7 +4952,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4939,7 +4965,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4952,7 +4978,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4965,7 +4991,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4978,7 +5004,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4991,7 +5017,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5004,7 +5030,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -5017,7 +5043,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5030,7 +5056,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -5043,7 +5069,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -5056,7 +5082,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -5069,7 +5095,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -5082,7 +5108,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -5095,7 +5121,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -5108,7 +5134,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -5121,7 +5147,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -5134,7 +5160,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -5147,7 +5173,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -5160,7 +5186,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -5173,7 +5199,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -5186,7 +5212,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -5199,7 +5225,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -5212,7 +5238,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -5225,7 +5251,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5238,7 +5264,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -5251,7 +5277,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -5264,7 +5290,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -5277,7 +5303,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
@@ -5322,6 +5348,7 @@
     <hyperlink ref="C23" r:id="rId22" display="https://leetcode-cn.com/problems/generate-parentheses/" tooltip="https://leetcode-cn.com/problems/generate-parentheses/"/>
     <hyperlink ref="C24" r:id="rId23" display="https://leetcode-cn.com/problems/assign-cookies"/>
     <hyperlink ref="B24" r:id="rId24" display="455. 分发饼干" tooltip="https://leetcode-cn.com/problems/assign-cookies/"/>
+    <hyperlink ref="C25" r:id="rId25" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/" tooltip="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -950,10 +950,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1023,7 +1023,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,30 +1038,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,6 +1046,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,6 +1076,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,7 +1138,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,6 +1146,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,7 +1173,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,13 +1224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFE2C23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,37 +1248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,13 +1266,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1338,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,61 +1392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,17 +1475,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,21 +1512,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1534,68 +1536,75 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1607,101 +1616,98 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1765,13 +1771,16 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1810,7 +1819,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2123,487 +2132,487 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="28" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.06666666666667" style="28" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="28" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="29" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="29" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9.06666666666667" style="29" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="38"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="33">
+      <c r="A5" s="34">
         <v>11</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="21">
+      <c r="D5" s="35"/>
+      <c r="E5" s="22">
         <v>44288</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>44288</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="22">
         <v>44289</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="28" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="35">
+      <c r="A6" s="36">
         <v>283</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="21">
+      <c r="D6" s="35"/>
+      <c r="E6" s="22">
         <v>44288</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <v>44288</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="22">
         <v>44289</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="35">
+      <c r="A7" s="36">
         <v>70</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="21">
+      <c r="D7" s="35"/>
+      <c r="E7" s="22">
         <v>44288</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="22">
         <v>44288</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="22">
         <v>44288</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="33">
+      <c r="A8" s="34">
         <v>15</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="35">
+      <c r="A9" s="36">
         <v>206</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>24</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="21">
+      <c r="D10" s="35"/>
+      <c r="E10" s="22">
         <v>44289</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="22">
         <v>44289</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="22">
         <v>44290</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="35">
+      <c r="A11" s="36">
         <v>141</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="33">
+      <c r="A12" s="34">
         <v>142</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="36">
+      <c r="A13" s="37">
         <v>25</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="35">
+      <c r="A14" s="36">
         <v>20</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="35">
+      <c r="A15" s="36">
         <v>155</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="36">
+      <c r="A16" s="37">
         <v>84</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="36">
+      <c r="A17" s="37">
         <v>239</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="21">
+      <c r="D17" s="35"/>
+      <c r="E17" s="22">
         <v>44294</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="22">
         <v>44294</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="35">
+      <c r="A22" s="36">
         <v>26</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="35">
+      <c r="A23" s="36">
         <v>189</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="35">
+      <c r="A24" s="36">
         <v>21</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="21">
+      <c r="D24" s="35"/>
+      <c r="E24" s="22">
         <v>44290</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="22">
         <v>44290</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="22">
         <v>44291</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="35">
+      <c r="A25" s="36">
         <v>88</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="35">
+      <c r="A26" s="36">
         <v>1</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="21">
+      <c r="D26" s="35"/>
+      <c r="E26" s="22">
         <v>44288</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="22">
         <v>44288</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="22">
         <v>44289</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="35">
+      <c r="A27" s="36">
         <v>66</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="21">
+      <c r="D27" s="35"/>
+      <c r="E27" s="22">
         <v>44288</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="22">
         <v>44288</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="22">
         <v>44288</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="33">
+      <c r="A28" s="34">
         <v>641</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="21">
+      <c r="D28" s="35"/>
+      <c r="E28" s="22">
         <v>44292</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="22">
         <v>44292</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="36">
+      <c r="A29" s="37">
         <v>42</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2741,13 +2750,13 @@
         <v>58</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>44291</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>44291</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="22">
         <v>44292</v>
       </c>
       <c r="H5" s="18"/>
@@ -2781,13 +2790,13 @@
         <v>61</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="21">
+      <c r="E7" s="22">
         <v>44291</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="22">
         <v>44291</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="22">
         <v>44292</v>
       </c>
       <c r="H7" s="18"/>
@@ -2804,10 +2813,10 @@
         <v>63</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="21">
+      <c r="E8" s="22">
         <v>44294</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="22">
         <v>44294</v>
       </c>
       <c r="G8" s="17"/>
@@ -2831,10 +2840,10 @@
         <v>67</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="21">
+      <c r="E9" s="22">
         <v>44294</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="22">
         <v>44294</v>
       </c>
       <c r="G9" s="17"/>
@@ -2852,10 +2861,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="21">
+      <c r="E10" s="22">
         <v>44295</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="22">
         <v>44295</v>
       </c>
       <c r="G10" s="17"/>
@@ -2873,10 +2882,10 @@
         <v>71</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="21">
+      <c r="E11" s="22">
         <v>44295</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="22">
         <v>44295</v>
       </c>
       <c r="G11" s="17"/>
@@ -2894,10 +2903,10 @@
         <v>73</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="21">
+      <c r="E12" s="22">
         <v>44297</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="22">
         <v>44297</v>
       </c>
       <c r="G12" s="17"/>
@@ -2908,13 +2917,13 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="17"/>
@@ -2925,7 +2934,7 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="20">
+      <c r="A14" s="21">
         <v>239</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -2935,10 +2944,10 @@
         <v>37</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="21">
+      <c r="E14" s="22">
         <v>44294</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="22">
         <v>44294</v>
       </c>
       <c r="G14" s="18"/>
@@ -2946,7 +2955,7 @@
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -2957,7 +2966,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -2998,14 +3007,14 @@
       <c r="B19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="21">
+      <c r="E19" s="22">
         <v>44297</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="22">
         <v>44297</v>
       </c>
       <c r="G19" s="17"/>
@@ -3019,14 +3028,14 @@
       <c r="B20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="28" t="s">
         <v>82</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="21">
+      <c r="E20" s="22">
         <v>44297</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="22">
         <v>44297</v>
       </c>
       <c r="G20" s="17"/>
@@ -3157,10 +3166,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>44299</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>44299</v>
       </c>
       <c r="G5" s="17"/>
@@ -3178,10 +3187,10 @@
         <v>86</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="21">
+      <c r="E6" s="22">
         <v>44300</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <v>44300</v>
       </c>
       <c r="G6" s="18"/>
@@ -3192,144 +3201,144 @@
       <c r="A7" s="19">
         <v>226</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21">
+      <c r="D7" s="23"/>
+      <c r="E7" s="22">
         <v>44299</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="22">
         <v>44299</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="15">
         <v>98</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22">
         <v>44300</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="22">
         <v>44300</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="19">
         <v>104</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22">
         <v>44298</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="22">
         <v>44298</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="19">
         <v>111</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21">
+      <c r="D10" s="23"/>
+      <c r="E10" s="22">
         <v>44299</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="22">
         <v>44299</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="23">
+      <c r="A11" s="24">
         <v>297</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="15">
         <v>50</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21">
+      <c r="D12" s="23"/>
+      <c r="E12" s="22">
         <v>44302</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="22">
         <v>44302</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="15">
         <v>78</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21">
+      <c r="D13" s="23"/>
+      <c r="E13" s="22">
         <v>44303</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="22">
         <v>44303</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="19">
@@ -3342,10 +3351,10 @@
         <v>102</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="21">
+      <c r="E14" s="22">
         <v>44299</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="22">
         <v>44299</v>
       </c>
       <c r="G14" s="18"/>
@@ -3363,10 +3372,10 @@
         <v>104</v>
       </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="21">
+      <c r="E15" s="22">
         <v>44303</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="22">
         <v>44303</v>
       </c>
       <c r="G15" s="18"/>
@@ -3374,7 +3383,7 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="20">
+      <c r="A16" s="21">
         <v>51</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -3384,10 +3393,10 @@
         <v>106</v>
       </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="21">
+      <c r="E16" s="22">
         <v>44299</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="22">
         <v>44299</v>
       </c>
       <c r="G16" s="18"/>
@@ -3444,102 +3453,102 @@
       <c r="A21" s="15">
         <v>236</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21">
+      <c r="D21" s="23"/>
+      <c r="E21" s="22">
         <v>44303</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="22">
         <v>44303</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="15">
         <v>105</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
+      <c r="D22" s="23"/>
+      <c r="E22" s="22">
         <v>44303</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="22">
         <v>44303</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="15">
         <v>77</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21">
+      <c r="D23" s="23"/>
+      <c r="E23" s="22">
         <v>44303</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="22">
         <v>44303</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="15">
         <v>46</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="7">
         <v>44305</v>
       </c>
       <c r="F24" s="7">
         <v>44305</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="15">
         <v>47</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3579,7 +3588,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3746,8 +3755,12 @@
         <v>127</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="7">
+        <v>44310</v>
+      </c>
+      <c r="F9" s="7">
+        <v>44310</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -3763,8 +3776,12 @@
         <v>129</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="7">
+        <v>44310</v>
+      </c>
+      <c r="F10" s="7">
+        <v>44310</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -3885,14 +3902,18 @@
         <v>137</v>
       </c>
       <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="E18" s="7">
+        <v>44310</v>
+      </c>
+      <c r="F18" s="7">
+        <v>44310</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="15">
+      <c r="A19" s="20">
         <v>127</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -3919,8 +3940,12 @@
         <v>141</v>
       </c>
       <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="E20" s="7">
+        <v>44310</v>
+      </c>
+      <c r="F20" s="7">
+        <v>44310</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -4011,7 +4036,7 @@
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="20">
+      <c r="A26" s="21">
         <v>126</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -4028,7 +4053,7 @@
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="20">
+      <c r="A27" s="21">
         <v>45</v>
       </c>
       <c r="B27" s="16" t="s">

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -950,10 +950,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1023,22 +1023,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,17 +1043,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,9 +1057,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,6 +1129,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1159,8 +1158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,7 +1236,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,61 +1302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,7 +1320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1332,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,31 +1380,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,43 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,17 +1475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1497,21 +1486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1530,6 +1504,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1557,153 +1546,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3588,7 +3588,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3961,8 +3961,12 @@
         <v>143</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="E21" s="7">
+        <v>44310</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44310</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -3978,8 +3982,12 @@
         <v>145</v>
       </c>
       <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="E22" s="7">
+        <v>44310</v>
+      </c>
+      <c r="F22" s="7">
+        <v>44310</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -3995,8 +4003,12 @@
         <v>147</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="7">
+        <v>44310</v>
+      </c>
+      <c r="F23" s="7">
+        <v>44310</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>

--- a/Wudu Practice.xlsx
+++ b/Wudu Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="3"/>
+    <workbookView windowHeight="17940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="268">
   <si>
     <t>题号</t>
   </si>
@@ -810,6 +810,9 @@
     <t>Day 25</t>
   </si>
   <si>
+    <t>860. 柠檬水找零</t>
+  </si>
+  <si>
     <t>Day 26</t>
   </si>
   <si>
@@ -950,9 +953,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1023,13 +1026,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1043,6 +1039,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1050,8 +1054,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,17 +1069,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,14 +1097,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1137,7 +1134,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,15 +1149,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,7 +1239,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,13 +1383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,121 +1407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,31 +1419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,15 +1526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1549,6 +1543,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1562,152 +1565,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1734,6 +1737,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2132,487 +2138,487 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="77.125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="9.13333333333333" style="29" customWidth="1"/>
-    <col min="6" max="6" width="8.21666666666667" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9.06666666666667" style="29" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="26.25" style="29" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="77.125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="9.13333333333333" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.21666666666667" style="30" customWidth="1"/>
+    <col min="7" max="7" width="8.35" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.06666666666667" style="30" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="30" customWidth="1"/>
+    <col min="10" max="16384" width="26.25" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="39"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:1">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="34">
+      <c r="A5" s="35">
         <v>11</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="22">
+      <c r="D5" s="36"/>
+      <c r="E5" s="23">
         <v>44288</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="23">
         <v>44288</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="23">
         <v>44289</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="29" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="36">
+      <c r="A6" s="37">
         <v>283</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="22">
+      <c r="D6" s="36"/>
+      <c r="E6" s="23">
         <v>44288</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="23">
         <v>44288</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="23">
         <v>44289</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="36">
+      <c r="A7" s="37">
         <v>70</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="22">
+      <c r="D7" s="36"/>
+      <c r="E7" s="23">
         <v>44288</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="23">
         <v>44288</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="23">
         <v>44288</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="34">
+      <c r="A8" s="35">
         <v>15</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="36">
+      <c r="A9" s="37">
         <v>206</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="34">
+      <c r="A10" s="35">
         <v>24</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="22">
+      <c r="D10" s="36"/>
+      <c r="E10" s="23">
         <v>44289</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>44289</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="23">
         <v>44290</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="36">
+      <c r="A11" s="37">
         <v>141</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="34">
+      <c r="A12" s="35">
         <v>142</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="37">
+      <c r="A13" s="38">
         <v>25</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="36">
+      <c r="A14" s="37">
         <v>20</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="36">
+      <c r="A15" s="37">
         <v>155</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="37">
+      <c r="A16" s="38">
         <v>84</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="37">
+      <c r="A17" s="38">
         <v>239</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="22">
+      <c r="D17" s="36"/>
+      <c r="E17" s="23">
         <v>44294</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="23">
         <v>44294</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="13.5" spans="1:1">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="36">
+      <c r="A22" s="37">
         <v>26</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="36">
+      <c r="A23" s="37">
         <v>189</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="36">
+      <c r="A24" s="37">
         <v>21</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="22">
+      <c r="D24" s="36"/>
+      <c r="E24" s="23">
         <v>44290</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="23">
         <v>44290</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="23">
         <v>44291</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="36">
+      <c r="A25" s="37">
         <v>88</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="36">
+      <c r="A26" s="37">
         <v>1</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="22">
+      <c r="D26" s="36"/>
+      <c r="E26" s="23">
         <v>44288</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="23">
         <v>44288</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="23">
         <v>44289</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="36">
+      <c r="A27" s="37">
         <v>66</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="22">
+      <c r="D27" s="36"/>
+      <c r="E27" s="23">
         <v>44288</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="23">
         <v>44288</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="23">
         <v>44288</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="34">
+      <c r="A28" s="35">
         <v>641</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="22">
+      <c r="D28" s="36"/>
+      <c r="E28" s="23">
         <v>44292</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="23">
         <v>44292</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="37">
+      <c r="A29" s="38">
         <v>42</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2674,154 +2680,154 @@
   </cols>
   <sheetData>
     <row r="1" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="19">
+      <c r="A5" s="20">
         <v>242</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="22">
+      <c r="D5" s="18"/>
+      <c r="E5" s="23">
         <v>44291</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="23">
         <v>44291</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="23">
         <v>44292</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="15">
+      <c r="A6" s="16">
         <v>49</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="22">
+      <c r="D7" s="18"/>
+      <c r="E7" s="23">
         <v>44291</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="23">
         <v>44291</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="23">
         <v>44292</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>94</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="22">
+      <c r="D8" s="18"/>
+      <c r="E8" s="23">
         <v>44294</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="23">
         <v>44294</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
       <c r="K8" t="s">
         <v>64</v>
       </c>
@@ -2830,217 +2836,217 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>144</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="22">
+      <c r="D9" s="18"/>
+      <c r="E9" s="23">
         <v>44294</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <v>44294</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="19">
+      <c r="A10" s="20">
         <v>590</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="22">
+      <c r="D10" s="18"/>
+      <c r="E10" s="23">
         <v>44295</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>44295</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="19">
+      <c r="A11" s="20">
         <v>589</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="22">
+      <c r="D11" s="18"/>
+      <c r="E11" s="23">
         <v>44295</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="23">
         <v>44295</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="15">
+      <c r="A12" s="16">
         <v>429</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="22">
+      <c r="D12" s="18"/>
+      <c r="E12" s="23">
         <v>44297</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="23">
         <v>44297</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
       <c r="M12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>239</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="22">
+      <c r="D14" s="19"/>
+      <c r="E14" s="23">
         <v>44294</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="23">
         <v>44294</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="27"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="27"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="22">
+      <c r="D19" s="18"/>
+      <c r="E19" s=